--- a/Poster/graphics work.xlsx
+++ b/Poster/graphics work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="8445" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="8445" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Chart4" sheetId="7" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
     <sheet name="Chart3" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
-    <sheet name="Chart5" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sorted by size" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Test Errors</t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>Baseline better than SVM</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -666,6 +670,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -802,11 +807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68097536"/>
-        <c:axId val="49445632"/>
+        <c:axId val="136138752"/>
+        <c:axId val="134548288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68097536"/>
+        <c:axId val="136138752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,13 +833,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49445632"/>
+        <c:crossAx val="134548288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49445632"/>
+        <c:axId val="134548288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,19 +871,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68097536"/>
+        <c:crossAx val="136138752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6226,11 +6234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55561024"/>
-        <c:axId val="55561600"/>
+        <c:axId val="134550016"/>
+        <c:axId val="134550592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55561024"/>
+        <c:axId val="134550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -6259,12 +6267,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55561600"/>
+        <c:crossAx val="134550592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55561600"/>
+        <c:axId val="134550592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6295,7 +6303,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55561024"/>
+        <c:crossAx val="134550016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6431,7 +6439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6856,11 +6863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68638720"/>
-        <c:axId val="55565056"/>
+        <c:axId val="136140288"/>
+        <c:axId val="175358528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68638720"/>
+        <c:axId val="136140288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6888,7 +6895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55565056"/>
+        <c:crossAx val="175358528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6896,7 +6903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55565056"/>
+        <c:axId val="175358528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6925,7 +6932,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68638720"/>
+        <c:crossAx val="136140288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6982,10 +6989,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6997,11 +7000,2642 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$H$1</c:f>
+              <c:f>Sheet4!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test Accuracy</c:v>
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$431</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="430"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$431</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="430"/>
+                <c:pt idx="0">
+                  <c:v>63.636363636399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.185185185199998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.555555555599994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.615384615400004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.135135135100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.736842105299999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.526315789500003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.402597402599994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.805194805200003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.461538461499998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.717948717900001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.051282051300007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.746835442999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.734177215200006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.468354430399998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.405063291100006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.2962962963</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.765432098800005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.481481481499998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.2962962963</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.765432098800005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97.530864197499994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>88.888888888899999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95.061728395100005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97.530864197499994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96.2962962963</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95.061728395100005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.530864197499994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88.888888888899999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88.888888888899999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.061728395100005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>93.827160493799994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>93.827160493799994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98.765432098800005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91.358024691400004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.2962962963</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96.2962962963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95.061728395100005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>98.765432098800005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95.061728395100005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.185185185199998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>88.888888888899999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>96.3414634146</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.780487804900005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>98.780487804900005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>98.780487804900005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>95.121951219500005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>95.121951219500005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>96.3414634146</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93.902439024399996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>98.780487804900005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>98.780487804900005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>89.024390243900001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>91.463414634100005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>93.902439024399996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95.121951219500005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>96.3414634146</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>90.243902438999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80.487804878000006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.024390243900001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89.024390243900001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.121951219500005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>92.682926829300001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.902439024399996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95.121951219500005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>97.560975609799996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.682926829300001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94.318181818200003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96.666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>94.3396226415</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>88.888888888899999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>73.873873873899996</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>87.301587301599994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>74.045801526700004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.476190476200003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.384615384599996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>86.666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>84.848484848499993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>86.046511627900003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>84.3930635838</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>94.219653179199994</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>94.827586206899994</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>93.678160919500002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>86.781609195399994</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>88.571428571400006</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>87.428571428599994</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>89.204545454500007</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>82.954545454500007</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>82.954545454500007</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>88.636363636400006</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>85.795454545499993</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>90.909090909100001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>93.181818181799997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>86.931818181799997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>90.395480226000004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>89.830508474599995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>84.180790960500005</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>92.090395480200002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>83.0508474576</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>88.135593220299995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>86.440677966099997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>91.573033707899995</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>91.011235955100005</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>86.5168539326</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>88.202247190999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>85.714285714300004</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>91.578947368399994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>91.836734693899999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>92.682926829300001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>95.169082125599999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>83.720930232599997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>94.545454545499993</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>92.241379310300005</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>90.987124463499995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>91.803278688500001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>89.015151515200003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>93.6567164179</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>95.167286245400007</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>74.452554744500006</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>94.909090909100001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>95.272727272699996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>90.181818181799997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>93.454545454500007</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>91.397849462400004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>88.530465949800004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>93.189964157700004</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>91.428571428599994</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>94.661921708199998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>91.843971631200006</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>96.808510638300007</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>88.652482269499998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>80.918727915199995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>94.699646643099996</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>84.452296819799997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>93.992932862200007</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>85.865724381600003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>95.053003533600005</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>93.309859154899996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>93.309859154899996</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>77.622377622399995</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>88.111888111900001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>83.566433566399994</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>91.986062717799996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>90.333333333300004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>85.585585585600001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>88.724035608299999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89.053254437899994</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90.9356725146</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>89.244186046500005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>86.086956521700003</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>87.246376811600001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>90.724637681199994</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>91.9308357349</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>85.919540229899994</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>79.083094555900004</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>87.784090909100001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>83.661971831000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>86.197183098599993</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>90.704225352099996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>80.563380281700006</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>91.573033707899995</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>87.921348314599996</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>92.1568627451</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>88.235294117600006</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>85.474860335200006</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>90.529247910899997</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>86.072423398300003</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>90.250696378800001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>89.166666666699996</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>85.833333333300004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>82.825484764500004</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>89.779005524900001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>85.674931129499996</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>92.032967033000006</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>84.383561643799993</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>89.617486338800006</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>83.544303797500007</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>91.747572815500007</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>90.167865707399997</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>90.476190476200003</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>87.410926365799995</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>84.869976359299997</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>90.330188679200006</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>86.823529411799996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>89.252336448600005</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>87.179487179500001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>87.441860465100007</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>93.967517401400002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>86.774941995399999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>84.686774942</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>92.129629629600004</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>86.635944700500005</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>86.866359446999994</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>81.105990783400003</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>86.666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>83.448275862100004</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>87.185354691100002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>87.871853546899999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>90.846681922200005</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>87.185354691100002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>89.269406392700006</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>88.356164383600003</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>92.465753424699997</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>86.0730593607</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>81.548974943100006</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>86.104783599100003</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>89.521640091099997</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>91.1504424779</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>88.771186440700006</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>85.443037974700005</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>91.176470588200004</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>82.786885245899995</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>90.263691683600001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>91.111111111100001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>91.717171717200003</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>83.467741935500001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>88.152610441799993</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>88.977955911799995</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>90.8548707753</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>91.451292246500003</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>86.282306163000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>92.047713717700006</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>87.154150197600003</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>87.154150197600003</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>80.3149606299</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>82.874015748000005</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>84.479371316300004</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>90.392156862700006</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>92.1568627451</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>75.929549902199994</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>82.03125</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>90.8203125</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>80.2734375</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>89.708737864100002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>85.106382978699997</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>75.868725868699997</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>85.740740740700005</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>87.835420393600003</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>91.103202847000006</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>82.241379310300005</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>92.820512820499999</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>81.895093062599997</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>80.303030303</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>77.424749163900003</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>91.638795986600002</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>81.530782029999997</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>81.893687707599994</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>80.5647840532</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>83.720930232599997</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>87.396351575500006</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>80.198019802000005</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>80.395387149900003</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>82.042833607899993</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>89.983579638799995</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>79.638752052499996</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>86.7213114754</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>86.557377049199999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>81.138211382099996</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>89.320388349500007</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>78.72</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>80.884676145300006</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>80.157480315000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>81.748466257700002</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>81.554878048800006</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>79.003021148000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>82.628398791500004</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>80.059970015000005</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>79.910044977499993</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>90.868263473100001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>88.077496274200001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>94.038748137100001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>82.142857142899999</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>79.940564636000005</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>91.839762611300003</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>81.305637982199997</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>90.666666666699996</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>73.481481481499998</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>76.696165191700004</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>79.675994109000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>77.826725403799998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>89.589442815200002</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>80.116959064300005</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>89.181286549700005</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>73.9825581395</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>79.245283018899997</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>88.744588744599994</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>79.394812680100003</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>81.444759206800001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>77.387640449399996</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>75.338753387500006</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>76.259946949600007</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>92.317880794700002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>77.094240837699999</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>89.136125654500006</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>78.954248366000002</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>78.654592496800007</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>93.531694696000002</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>89.935483871000002</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>89.690721649500006</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>73.582474226800002</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>90.203562340999994</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>91.730279898199996</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>78.045685279200001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>90.151515151500007</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>80.352644836300001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>90.613266583200001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>77.611940298500002</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>78.1908302354</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>78.457772337799994</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>76.792223572300003</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>81.166464155499995</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>80.746089049299997</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>78.177458033600004</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>79.186602870800002</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>77.684964200500005</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>79.191438763400001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>78.503562945400006</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>77.078384798100004</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>81.398104265399994</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>87.455621301799994</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>81.183431952700005</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>79.550827423200005</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>89.020070838300001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>79.599056603799994</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>82.311320754700006</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>90.106007067099995</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>90.930506478200002</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>90.246768507599995</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>78.220140515200001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>86.299765808000004</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>90.420560747699994</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>78.621495327100007</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>88.9148191365</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>87.296037295999994</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>79.7674418605</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>80.2555168409</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>86.906141367299995</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>90.103567318800003</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>83.501683501700001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>80.688124306299997</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>80.044345898000003</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>84.717607973400007</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>88.938053097299999</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>77.887788778900003</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>80.219780219800001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>79.034028540099996</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>84.405670665200006</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>81.719260065300006</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>80.326086956500006</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>80.498374864599995</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>78.679653679699996</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>80.387931034499999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>80.773361976399997</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>80.364806866999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>78.288770053500002</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>80.254777070100005</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>85.031847133799999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>72.611464968199996</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>87.486744432699993</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>81.395348837200004</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>80.761099365800007</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>79.324894514799993</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>86.814345991600007</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>81.578947368399994</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>78.864353312299997</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>87.211740041900001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>79.310344827600005</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>85.431841831400007</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>80.0415800416</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>85.758835758800004</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>81.347150259100005</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>77.616580310900005</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>83.264462809899996</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>84.432989690699998</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>82.854209445600006</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>80.307692307699995</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>85.465711361299995</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>78.220858895700005</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>81.160896130300003</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>85.132382892099997</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>80.7731434385</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>86.686991869899998</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>76.166328600400007</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>88.235294117600006</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>83.0628803245</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>75.429726997000003</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>81.515151515200003</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>81.231079717499995</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>82.341069626600003</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>87.5882946519</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>79.556898287999999</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>85.2112676056</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>81.891348088499996</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>81.526104417699997</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>83.232931726900006</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>84.215784215799999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>79.7607178465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7014,15 +9648,11 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$431</c:f>
+              <c:f>Sheet4!$A$2:$A$431</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="430"/>
@@ -8321,1299 +10951,1299 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$H$2:$H$431</c:f>
+              <c:f>Sheet4!$C$2:$C$431</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="430"/>
                 <c:pt idx="0">
-                  <c:v>63.636363636399999</c:v>
+                  <c:v>63.636363639999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.185185185199998</c:v>
+                  <c:v>85.185185189999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.555555555599994</c:v>
+                  <c:v>97.777777779999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>97.826086959999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.615384615400004</c:v>
+                  <c:v>84.61538462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>63.333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.135135135100001</c:v>
+                  <c:v>86.486486490000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.666666666699996</c:v>
+                  <c:v>97.333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.736842105299999</c:v>
+                  <c:v>93.421052630000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85.526315789500003</c:v>
+                  <c:v>84.21052632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>97.402597400000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.402597402599994</c:v>
+                  <c:v>94.805194810000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.805194805200003</c:v>
+                  <c:v>97.402597400000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.461538461499998</c:v>
+                  <c:v>88.46153846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.717948717900001</c:v>
+                  <c:v>97.435897440000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.051282051300007</c:v>
+                  <c:v>83.333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.746835442999995</c:v>
+                  <c:v>79.746835439999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>98.734177215200006</c:v>
+                  <c:v>94.936708859999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.468354430399998</c:v>
+                  <c:v>97.468354430000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92.405063291100006</c:v>
+                  <c:v>92.405063290000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>96.25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>98.75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.75</c:v>
+                  <c:v>58.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96.25</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>98.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.5</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98.765432099999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.765432099999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.716049380000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.296296299999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
+                  <c:v>97.530864199999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91.358024689999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92.592592589999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95.061728400000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.765432099999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95.061728400000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98.765432099999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.654320990000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90.123456790000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>93.827160489999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92.592592589999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>93.827160489999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.530864199999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>93.827160489999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>98.765432099999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>97.530864199999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>96.296296299999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>98.765432099999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>92.592592589999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>83.950617280000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90.123456790000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92.68292683</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>97.56097561</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>93.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>91.25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>96.2962962963</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>98.765432098800005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>81.481481481499998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96.2962962963</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>98.765432098800005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>97.530864197499994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>88.888888888899999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>95.061728395100005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>97.530864197499994</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>96.2962962963</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>95.061728395100005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>97.530864197499994</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>88.888888888899999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>88.888888888899999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>95.061728395100005</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>93.827160493799994</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>93.827160493799994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>98.765432098800005</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>91.358024691400004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>96.2962962963</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96.2962962963</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>95.061728395100005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>98.765432098800005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>95.061728395100005</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>85.185185185199998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>88.888888888899999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>96.3414634146</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>98.780487804900005</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>98.780487804900005</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>98.780487800000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>98.780487804900005</c:v>
+                  <c:v>98.780487800000003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>95.121951219500005</c:v>
+                  <c:v>93.902439020000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>95.121951219500005</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>96.3414634146</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>93.902439024399996</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.780487804900005</c:v>
+                  <c:v>98.780487800000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>97.56097561</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>98.780487804900005</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89.024390243900001</c:v>
+                  <c:v>87.804878049999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>91.463414634100005</c:v>
+                  <c:v>92.68292683</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.902439024399996</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>95.121951219500005</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.3414634146</c:v>
+                  <c:v>93.902439020000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>90.243902438999996</c:v>
+                  <c:v>91.463414630000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>80.487804878000006</c:v>
+                  <c:v>80.487804879999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>89.024390243900001</c:v>
+                  <c:v>92.68292683</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>89.024390243900001</c:v>
+                  <c:v>89.024390240000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>98.780487800000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>95.121951219500005</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>92.682926829300001</c:v>
+                  <c:v>91.463414630000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>93.902439024399996</c:v>
+                  <c:v>93.902439020000003</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95.121951219500005</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>97.560975609799996</c:v>
+                  <c:v>96.341463410000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>92.682926829300001</c:v>
+                  <c:v>95.12195122</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>94.318181818200003</c:v>
+                  <c:v>94.318181820000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96.666666666699996</c:v>
+                  <c:v>93.333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>94.3396226415</c:v>
+                  <c:v>91.509433959999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>88.888888888899999</c:v>
+                  <c:v>88.888888890000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>73.873873873899996</c:v>
+                  <c:v>71.171171169999994</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>87.301587301599994</c:v>
+                  <c:v>85.714285709999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>74.045801526700004</c:v>
+                  <c:v>68.702290079999997</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>90.476190476200003</c:v>
+                  <c:v>87.755102039999997</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>90.384615384599996</c:v>
+                  <c:v>90.38461538</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>86.666666666699996</c:v>
+                  <c:v>86.060606059999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>84.848484848499993</c:v>
+                  <c:v>84.242424240000005</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>90</c:v>
+                  <c:v>89.41176471</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>86.046511627900003</c:v>
+                  <c:v>87.20930233</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>84.3930635838</c:v>
+                  <c:v>82.658959539999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>94.219653179199994</c:v>
+                  <c:v>93.063583820000005</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>94.827586206899994</c:v>
+                  <c:v>95.977011489999995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>93.678160919500002</c:v>
+                  <c:v>93.103448279999995</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>86.781609195399994</c:v>
+                  <c:v>86.781609200000005</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>88.571428571400006</c:v>
+                  <c:v>89.142857140000004</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>92</c:v>
+                  <c:v>91.428571430000005</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>87.428571428599994</c:v>
+                  <c:v>87.428571430000005</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>89.204545454500007</c:v>
+                  <c:v>90.340909089999997</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>82.954545454500007</c:v>
+                  <c:v>68.181818179999993</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>82.954545454500007</c:v>
+                  <c:v>83.522727270000004</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>88.636363636400006</c:v>
+                  <c:v>86.931818179999993</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>87.5</c:v>
+                  <c:v>86.363636360000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>85.795454545499993</c:v>
+                  <c:v>84.090909089999997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>90.909090909100001</c:v>
+                  <c:v>90.340909089999997</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>93.181818181799997</c:v>
+                  <c:v>92.045454550000002</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>86.931818181799997</c:v>
+                  <c:v>86.931818179999993</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>90.395480226000004</c:v>
+                  <c:v>91.52542373</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>89.830508474599995</c:v>
+                  <c:v>90.960451980000002</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>84.180790960500005</c:v>
+                  <c:v>84.180790959999996</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>92.090395480200002</c:v>
+                  <c:v>92.090395479999998</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>83.0508474576</c:v>
+                  <c:v>83.615819209999998</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>88.135593220299995</c:v>
+                  <c:v>89.26553672</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>86.440677966099997</c:v>
+                  <c:v>86.440677969999996</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>91.573033707899995</c:v>
+                  <c:v>92.696629209999998</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>91.011235955100005</c:v>
+                  <c:v>91.573033710000004</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>86.5168539326</c:v>
+                  <c:v>85.393258430000003</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>88.202247190999998</c:v>
+                  <c:v>91.573033710000004</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>85.714285714300004</c:v>
+                  <c:v>86.77248677</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>91.578947368399994</c:v>
+                  <c:v>92.105263160000007</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>91.836734693899999</c:v>
+                  <c:v>90.816326529999998</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>92.682926829300001</c:v>
+                  <c:v>93.170731709999998</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>95.169082125599999</c:v>
+                  <c:v>94.20289855</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>83.720930232599997</c:v>
+                  <c:v>83.720930229999993</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>94.545454545499993</c:v>
+                  <c:v>94.545454550000002</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>92.241379310300005</c:v>
+                  <c:v>91.810344830000005</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>90.987124463499995</c:v>
+                  <c:v>90.12875536</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>91.803278688500001</c:v>
+                  <c:v>91.803278689999999</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>89.015151515200003</c:v>
+                  <c:v>89.015151520000003</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>93.6567164179</c:v>
+                  <c:v>93.283582089999996</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>95.167286245400007</c:v>
+                  <c:v>94.79553903</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>74.452554744500006</c:v>
+                  <c:v>61.678832120000003</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>94.909090909100001</c:v>
+                  <c:v>93.454545449999998</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>95.272727272699996</c:v>
+                  <c:v>94.181818179999993</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>90.181818181799997</c:v>
+                  <c:v>90.909090910000003</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>93.454545454500007</c:v>
+                  <c:v>92.727272729999996</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>91.397849462400004</c:v>
+                  <c:v>91.397849460000003</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>88.530465949800004</c:v>
+                  <c:v>88.172043009999996</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>93.189964157700004</c:v>
+                  <c:v>92.114695339999997</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>91.428571428599994</c:v>
+                  <c:v>90.714285709999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>95</c:v>
+                  <c:v>94.285714290000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>94.661921708199998</c:v>
+                  <c:v>93.238434159999997</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>91.843971631200006</c:v>
+                  <c:v>91.843971629999999</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>96.808510638300007</c:v>
+                  <c:v>95.390070919999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>88.652482269499998</c:v>
+                  <c:v>88.652482269999993</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>80.918727915199995</c:v>
+                  <c:v>79.505300349999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>94.699646643099996</c:v>
+                  <c:v>93.286219079999995</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>84.452296819799997</c:v>
+                  <c:v>78.798586569999998</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>93.992932862200007</c:v>
+                  <c:v>93.639575969999996</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>85.865724381600003</c:v>
+                  <c:v>85.512367490000003</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>95.053003533600005</c:v>
+                  <c:v>93.992932859999996</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>93.309859154899996</c:v>
+                  <c:v>91.901408450000005</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>93.309859154899996</c:v>
+                  <c:v>93.661971829999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>77.622377622399995</c:v>
+                  <c:v>72.727272729999996</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>88.111888111900001</c:v>
+                  <c:v>88.111888109999995</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>83.566433566399994</c:v>
+                  <c:v>76.92307692</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>91.986062717799996</c:v>
+                  <c:v>90.940766550000006</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>90.333333333300004</c:v>
+                  <c:v>90.333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>85.585585585600001</c:v>
+                  <c:v>85.585585589999994</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>88.724035608299999</c:v>
+                  <c:v>89.020771510000003</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>89.053254437899994</c:v>
+                  <c:v>89.053254440000003</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>90.9356725146</c:v>
+                  <c:v>90.935672510000003</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>89.244186046500005</c:v>
+                  <c:v>89.244186049999996</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>86.086956521700003</c:v>
+                  <c:v>85.79710145</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>87.246376811600001</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>90.724637681199994</c:v>
+                  <c:v>90.724637680000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>91.9308357349</c:v>
+                  <c:v>87.608069159999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>85.919540229899994</c:v>
+                  <c:v>85.919540229999996</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>79.083094555900004</c:v>
+                  <c:v>61.318051580000002</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>87.784090909100001</c:v>
+                  <c:v>88.068181820000007</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>83.661971831000002</c:v>
+                  <c:v>79.436619719999996</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>86.197183098599993</c:v>
+                  <c:v>80.281690139999995</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>90.704225352099996</c:v>
+                  <c:v>90.704225350000002</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>80.563380281700006</c:v>
+                  <c:v>73.239436620000006</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>91.573033707899995</c:v>
+                  <c:v>89.325842699999995</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>87.921348314599996</c:v>
+                  <c:v>86.235955059999995</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>92.1568627451</c:v>
+                  <c:v>92.156862750000002</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>88.235294117600006</c:v>
+                  <c:v>88.235294120000006</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>85.474860335200006</c:v>
+                  <c:v>83.798882680000006</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>90.529247910899997</c:v>
+                  <c:v>89.136490249999994</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>86.072423398300003</c:v>
+                  <c:v>86.072423400000005</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>90.250696378800001</c:v>
+                  <c:v>90.250696379999994</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>89.166666666699996</c:v>
+                  <c:v>88.888888890000004</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>85.833333333300004</c:v>
+                  <c:v>83.611111109999996</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>82.825484764500004</c:v>
+                  <c:v>70.91412742</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>89.779005524900001</c:v>
+                  <c:v>86.740331490000003</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>85.674931129499996</c:v>
+                  <c:v>73.278236910000004</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>92.032967033000006</c:v>
+                  <c:v>92.032967029999995</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>84.383561643799993</c:v>
+                  <c:v>79.452054790000005</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>89.617486338800006</c:v>
+                  <c:v>84.699453550000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>83.544303797500007</c:v>
+                  <c:v>74.43037975</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>91.747572815500007</c:v>
+                  <c:v>91.990291260000006</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>90.167865707399997</c:v>
+                  <c:v>90.167865710000001</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>90.476190476200003</c:v>
+                  <c:v>90.47619048</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>87.410926365799995</c:v>
+                  <c:v>82.897862230000001</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>84.869976359299997</c:v>
+                  <c:v>76.832151300000007</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>90.330188679200006</c:v>
+                  <c:v>90.566037739999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>86.823529411799996</c:v>
+                  <c:v>83.764705879999994</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>89.252336448600005</c:v>
+                  <c:v>89.252336450000001</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>87.179487179500001</c:v>
+                  <c:v>87.41258741</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>87.441860465100007</c:v>
+                  <c:v>86.976744190000005</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>93.967517401400002</c:v>
+                  <c:v>93.967517400000006</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>86.774941995399999</c:v>
+                  <c:v>83.062645009999997</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>84.686774942</c:v>
+                  <c:v>84.454756380000006</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>92.129629629600004</c:v>
+                  <c:v>92.129629629999997</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>86.635944700500005</c:v>
+                  <c:v>82.258064520000005</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>86.866359446999994</c:v>
+                  <c:v>74.654377879999998</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>81.105990783400003</c:v>
+                  <c:v>74.654377879999998</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>86.666666666699996</c:v>
+                  <c:v>83.678160919999996</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>83.448275862100004</c:v>
+                  <c:v>78.390804599999996</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>87.185354691100002</c:v>
+                  <c:v>81.235697939999994</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>87.871853546899999</c:v>
+                  <c:v>82.151029750000006</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>90.846681922200005</c:v>
+                  <c:v>90.846681919999995</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>87.185354691100002</c:v>
+                  <c:v>86.041189930000002</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>89.269406392700006</c:v>
+                  <c:v>89.041095889999994</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>88.356164383600003</c:v>
+                  <c:v>88.127853880000004</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>92.465753424699997</c:v>
+                  <c:v>92.465753419999999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>86.0730593607</c:v>
+                  <c:v>85.159817349999997</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>81.548974943100006</c:v>
+                  <c:v>76.30979499</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>86.104783599100003</c:v>
+                  <c:v>84.510250569999997</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>89.521640091099997</c:v>
+                  <c:v>89.749430520000004</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>91.1504424779</c:v>
+                  <c:v>91.150442479999995</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>88.771186440700006</c:v>
+                  <c:v>88.771186439999994</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>85.443037974700005</c:v>
+                  <c:v>75.105485229999999</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>91.176470588200004</c:v>
+                  <c:v>91.176470589999994</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>82.786885245899995</c:v>
+                  <c:v>76.229508199999998</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>90.263691683600001</c:v>
+                  <c:v>90.263691679999994</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>91.111111111100001</c:v>
+                  <c:v>91.313131310000003</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>91.717171717200003</c:v>
+                  <c:v>91.717171719999996</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>83.467741935500001</c:v>
+                  <c:v>80.040322579999994</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>88.152610441799993</c:v>
+                  <c:v>88.353413649999993</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>88.977955911799995</c:v>
+                  <c:v>88.977955910000006</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>90.8548707753</c:v>
+                  <c:v>89.463220680000006</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>91.451292246500003</c:v>
+                  <c:v>91.053677930000006</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>86.282306163000001</c:v>
+                  <c:v>82.703777340000002</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>92.047713717700006</c:v>
+                  <c:v>92.445328029999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>87.154150197600003</c:v>
+                  <c:v>84.189723319999999</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>87.154150197600003</c:v>
+                  <c:v>86.758893279999995</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>80.3149606299</c:v>
+                  <c:v>76.771653540000003</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>82.874015748000005</c:v>
+                  <c:v>83.464566930000004</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>84.479371316300004</c:v>
+                  <c:v>73.67387033</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>90.392156862700006</c:v>
+                  <c:v>90.39215686</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>92.1568627451</c:v>
+                  <c:v>92.156862750000002</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>75.929549902199994</c:v>
+                  <c:v>55.772994130000001</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>82.03125</c:v>
+                  <c:v>74.21875</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>82.8125</c:v>
+                  <c:v>71.484375</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>90.8203125</c:v>
+                  <c:v>84.765625</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>80.2734375</c:v>
+                  <c:v>72.8515625</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>89.708737864100002</c:v>
+                  <c:v>89.320388350000002</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>85.106382978699997</c:v>
+                  <c:v>76.595744679999996</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>75.868725868699997</c:v>
+                  <c:v>59.266409269999997</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>85.740740740700005</c:v>
+                  <c:v>72.037037040000001</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>87.835420393600003</c:v>
+                  <c:v>87.835420389999996</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>91.103202847000006</c:v>
+                  <c:v>91.103202850000002</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>82.241379310300005</c:v>
+                  <c:v>73.103448279999995</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>92.820512820499999</c:v>
+                  <c:v>92.136752139999999</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>81.895093062599997</c:v>
+                  <c:v>71.912013540000004</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>80.303030303</c:v>
+                  <c:v>67.003366999999997</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>77.424749163900003</c:v>
+                  <c:v>77.591973240000002</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>91.638795986600002</c:v>
+                  <c:v>91.806020070000002</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>81.530782029999997</c:v>
+                  <c:v>71.214642260000005</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>81.893687707599994</c:v>
+                  <c:v>70.764119600000001</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>80.5647840532</c:v>
+                  <c:v>70.764119600000001</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>83.720930232599997</c:v>
+                  <c:v>81.229235880000004</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>87.396351575500006</c:v>
+                  <c:v>87.230514099999994</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>80.198019802000005</c:v>
+                  <c:v>77.062706270000007</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>80.395387149900003</c:v>
+                  <c:v>73.805601319999994</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>82.042833607899993</c:v>
+                  <c:v>76.276770999999997</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>89.983579638799995</c:v>
+                  <c:v>89.655172410000006</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>79.638752052499996</c:v>
+                  <c:v>63.546798029999998</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>86.7213114754</c:v>
+                  <c:v>87.049180329999999</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>86.557377049199999</c:v>
+                  <c:v>87.37704918</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>81.138211382099996</c:v>
+                  <c:v>75.12195122</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>89.320388349500007</c:v>
+                  <c:v>87.055016179999996</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>78.72</c:v>
+                  <c:v>77.760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>80.884676145300006</c:v>
+                  <c:v>71.72195893</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>80.157480315000001</c:v>
+                  <c:v>75.905511809999993</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>81.748466257700002</c:v>
+                  <c:v>67.024539880000006</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>81.554878048800006</c:v>
+                  <c:v>66.615853659999999</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>79.003021148000002</c:v>
+                  <c:v>69.788519640000004</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>82.628398791500004</c:v>
+                  <c:v>70.090634440000002</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>80.059970015000005</c:v>
+                  <c:v>78.710644680000001</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>79.910044977499993</c:v>
+                  <c:v>60.119940030000002</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>90.868263473100001</c:v>
+                  <c:v>91.317365269999996</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>88.077496274200001</c:v>
+                  <c:v>87.183308490000002</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>94.038748137100001</c:v>
+                  <c:v>94.038748139999996</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>82.142857142899999</c:v>
+                  <c:v>64.434523810000002</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>79.940564636000005</c:v>
+                  <c:v>69.687964339999994</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>91.839762611300003</c:v>
+                  <c:v>91.839762609999994</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>81.305637982199997</c:v>
+                  <c:v>76.112759639999993</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>90.666666666699996</c:v>
+                  <c:v>90.666666669999998</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>73.481481481499998</c:v>
+                  <c:v>72.740740740000007</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>76.696165191700004</c:v>
+                  <c:v>71.976401179999996</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>79.675994109000001</c:v>
+                  <c:v>69.513991160000003</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>77.826725403799998</c:v>
+                  <c:v>70.484581500000004</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>89.589442815200002</c:v>
+                  <c:v>89.442815249999995</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>80.116959064300005</c:v>
+                  <c:v>76.023391810000007</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>89.181286549700005</c:v>
+                  <c:v>88.888888890000004</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>73.9825581395</c:v>
+                  <c:v>54.215116279999997</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>79.245283018899997</c:v>
+                  <c:v>68.50507983</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>88.744588744599994</c:v>
+                  <c:v>88.744588739999998</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>79.394812680100003</c:v>
+                  <c:v>76.512968299999997</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>81.444759206800001</c:v>
+                  <c:v>70.396600570000004</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>77.387640449399996</c:v>
+                  <c:v>73.595505619999997</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>75.338753387500006</c:v>
+                  <c:v>73.035230350000006</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>76.259946949600007</c:v>
+                  <c:v>67.639257290000003</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>92.317880794700002</c:v>
+                  <c:v>92.317880790000004</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>77.094240837699999</c:v>
+                  <c:v>76.570680629999998</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>89.136125654500006</c:v>
+                  <c:v>89.659685859999996</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>78.954248366000002</c:v>
+                  <c:v>75.947712420000002</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>78.654592496800007</c:v>
+                  <c:v>62.613195339999997</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>93.531694696000002</c:v>
+                  <c:v>93.790426909999994</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>89.935483871000002</c:v>
+                  <c:v>90.064516130000001</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>89.690721649500006</c:v>
+                  <c:v>86.211340210000003</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>73.582474226800002</c:v>
+                  <c:v>69.974226799999997</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>90.203562340999994</c:v>
+                  <c:v>90.076335880000002</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>91.730279898199996</c:v>
+                  <c:v>91.857506360000002</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>78.045685279200001</c:v>
+                  <c:v>74.49238579</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>90.151515151500007</c:v>
+                  <c:v>86.994949489999996</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>80.352644836300001</c:v>
+                  <c:v>75.692695209999997</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>90.613266583200001</c:v>
+                  <c:v>90.112640799999994</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>77.611940298500002</c:v>
+                  <c:v>74.378109449999997</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>78.1908302354</c:v>
+                  <c:v>72.738537789999995</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>78.457772337799994</c:v>
+                  <c:v>77.233782129999994</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>76.792223572300003</c:v>
+                  <c:v>70.716889429999995</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>81.166464155499995</c:v>
+                  <c:v>78.97934386</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>80.746089049299997</c:v>
+                  <c:v>70.637785800000003</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>78.177458033600004</c:v>
+                  <c:v>71.103117510000004</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>79.186602870800002</c:v>
+                  <c:v>67.344497610000005</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>77.684964200500005</c:v>
+                  <c:v>76.014319810000003</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>79.191438763400001</c:v>
+                  <c:v>72.532699170000001</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>78.503562945400006</c:v>
+                  <c:v>76.365795719999994</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>77.078384798100004</c:v>
+                  <c:v>73.040380049999996</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>81.398104265399994</c:v>
+                  <c:v>77.48815166</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>87.455621301799994</c:v>
+                  <c:v>86.272189350000005</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>81.183431952700005</c:v>
+                  <c:v>59.171597630000001</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>79.550827423200005</c:v>
+                  <c:v>77.30496454</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>89.020070838300001</c:v>
+                  <c:v>89.020070840000002</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>79.599056603799994</c:v>
+                  <c:v>72.995283020000002</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>82.311320754700006</c:v>
+                  <c:v>71.226415090000003</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>90.106007067099995</c:v>
+                  <c:v>90.694935220000005</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>90.930506478200002</c:v>
+                  <c:v>91.048292110000006</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>90.246768507599995</c:v>
+                  <c:v>89.77673326</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>78.220140515200001</c:v>
+                  <c:v>75.761124120000005</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>86.299765808000004</c:v>
+                  <c:v>85.714285709999999</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>90.420560747699994</c:v>
+                  <c:v>90.537383180000006</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>78.621495327100007</c:v>
+                  <c:v>73.598130839999996</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>88.9148191365</c:v>
+                  <c:v>88.914819140000006</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>87.296037295999994</c:v>
+                  <c:v>87.52913753</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>79.7674418605</c:v>
+                  <c:v>59.534883720000003</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>80.2555168409</c:v>
+                  <c:v>73.519163759999998</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>86.906141367299995</c:v>
+                  <c:v>87.022016219999998</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>90.103567318800003</c:v>
+                  <c:v>89.413118530000006</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>83.501683501700001</c:v>
+                  <c:v>78.226711559999998</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>80.688124306299997</c:v>
+                  <c:v>78.357380689999999</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>80.044345898000003</c:v>
+                  <c:v>76.164079819999998</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>84.717607973400007</c:v>
+                  <c:v>73.089701000000005</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>88.938053097299999</c:v>
+                  <c:v>89.159292039999997</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>77.887788778900003</c:v>
+                  <c:v>70.627062710000004</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>80.219780219800001</c:v>
+                  <c:v>80.659340659999998</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>79.034028540099996</c:v>
+                  <c:v>79.034028539999994</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>84.405670665200006</c:v>
+                  <c:v>80.69792803</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>81.719260065300006</c:v>
+                  <c:v>74.319912950000003</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>80.326086956500006</c:v>
+                  <c:v>73.586956520000001</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>80.498374864599995</c:v>
+                  <c:v>77.681473460000007</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>78.679653679699996</c:v>
+                  <c:v>70.021645019999994</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>80.387931034499999</c:v>
+                  <c:v>77.370689659999996</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>80.773361976399997</c:v>
+                  <c:v>76.691729319999993</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>80.364806866999999</c:v>
+                  <c:v>77.145922749999997</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>78.288770053500002</c:v>
+                  <c:v>77.326203210000003</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>80.254777070100005</c:v>
+                  <c:v>73.354564760000002</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>85.031847133799999</c:v>
+                  <c:v>85.138004249999994</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>72.611464968199996</c:v>
+                  <c:v>55.20169851</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>87.486744432699993</c:v>
+                  <c:v>87.062566279999999</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>81.395348837200004</c:v>
+                  <c:v>81.0782241</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>80.761099365800007</c:v>
+                  <c:v>75.687103590000007</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>79.324894514799993</c:v>
+                  <c:v>73.312236290000001</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>86.814345991600007</c:v>
+                  <c:v>78.164556959999999</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>81.578947368399994</c:v>
+                  <c:v>81.473684210000002</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>78.864353312299997</c:v>
+                  <c:v>73.396424819999993</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>87.211740041900001</c:v>
+                  <c:v>87.211740039999995</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>79.310344827600005</c:v>
+                  <c:v>71.786833860000002</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>85.431841831400007</c:v>
+                  <c:v>83.766909470000002</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>80.0415800416</c:v>
+                  <c:v>74.324324320000002</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>85.758835758800004</c:v>
+                  <c:v>85.239085239999994</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>81.347150259100005</c:v>
+                  <c:v>76.269430049999997</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>77.616580310900005</c:v>
+                  <c:v>76.373056989999995</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>83.264462809899996</c:v>
+                  <c:v>81.404958679999993</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>84.432989690699998</c:v>
+                  <c:v>84.432989689999999</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>82.854209445600006</c:v>
+                  <c:v>71.047227930000005</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>80.307692307699995</c:v>
+                  <c:v>78.974358969999997</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>85.465711361299995</c:v>
+                  <c:v>84.646878200000003</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>78.220858895700005</c:v>
+                  <c:v>74.846625770000003</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>81.160896130300003</c:v>
+                  <c:v>73.014256619999998</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>85.132382892099997</c:v>
+                  <c:v>75.56008147</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>80.7731434385</c:v>
+                  <c:v>72.634791449999994</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>86.686991869899998</c:v>
+                  <c:v>86.68699187</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>76.166328600400007</c:v>
+                  <c:v>67.849898580000001</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>88.235294117600006</c:v>
+                  <c:v>88.133874239999997</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>83.0628803245</c:v>
+                  <c:v>83.062880320000005</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>75.429726997000003</c:v>
+                  <c:v>66.531850349999999</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>81.515151515200003</c:v>
+                  <c:v>73.131313129999995</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>81.231079717499995</c:v>
+                  <c:v>73.86478305</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>82.341069626600003</c:v>
+                  <c:v>81.533804239999995</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>87.5882946519</c:v>
+                  <c:v>83.451059540000003</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>79.556898287999999</c:v>
+                  <c:v>75.226586100000006</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>85.2112676056</c:v>
+                  <c:v>85.311871229999994</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>81.891348088499996</c:v>
+                  <c:v>81.891348089999994</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>81.526104417699997</c:v>
+                  <c:v>81.526104419999996</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>83.232931726900006</c:v>
+                  <c:v>79.417670680000001</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>84.215784215799999</c:v>
+                  <c:v>81.018981019999998</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>79.7607178465</c:v>
+                  <c:v>72.681954140000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9628,11 +12258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154117824"/>
-        <c:axId val="154118400"/>
+        <c:axId val="172398208"/>
+        <c:axId val="35373632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154117824"/>
+        <c:axId val="172398208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9642,12 +12272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154118400"/>
+        <c:crossAx val="35373632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154118400"/>
+        <c:axId val="35373632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9658,7 +12288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154117824"/>
+        <c:crossAx val="172398208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9679,7 +12309,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9723,7 +12353,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9734,7 +12364,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:ext cx="8659752" cy="6289408"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9842,7 +12472,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:ext cx="8667023" cy="6289408"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10154,8 +12784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X431"/>
   <sheetViews>
-    <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection sqref="A1:H431"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45890,8 +48520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H431"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H431"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57106,4 +59736,4766 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C431"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>63.636363636399999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>63.636363639999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>85.185185185199998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>85.185185189999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>95.555555555599994</v>
+      </c>
+      <c r="C4" s="1">
+        <v>97.777777779999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>97.826086959999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1">
+        <v>84.615384615400004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>84.61538462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1">
+        <v>63.333333330000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1">
+        <v>85.135135135100001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>86.486486490000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>98.666666666699996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>97.333333330000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1">
+        <v>94.736842105299999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>93.421052630000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1">
+        <v>85.526315789500003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>84.21052632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>97.402597400000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1">
+        <v>97.402597402599994</v>
+      </c>
+      <c r="C13" s="1">
+        <v>94.805194810000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1">
+        <v>94.805194805200003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>97.402597400000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1">
+        <v>88.461538461499998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>88.46153846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1">
+        <v>98.717948717900001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>97.435897440000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1">
+        <v>82.051282051300007</v>
+      </c>
+      <c r="C17" s="1">
+        <v>83.333333330000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <v>79.746835442999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>79.746835439999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1">
+        <v>98.734177215200006</v>
+      </c>
+      <c r="C20" s="1">
+        <v>94.936708859999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>79</v>
+      </c>
+      <c r="B21" s="1">
+        <v>97.468354430399998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>97.468354430000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1">
+        <v>92.405063291100006</v>
+      </c>
+      <c r="C22" s="1">
+        <v>92.405063290000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="C33" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1">
+        <v>91.25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1">
+        <v>96.2962962963</v>
+      </c>
+      <c r="C37" s="1">
+        <v>98.765432099999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1">
+        <v>98.765432098800005</v>
+      </c>
+      <c r="C38" s="1">
+        <v>98.765432099999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1">
+        <v>81.481481481499998</v>
+      </c>
+      <c r="C39" s="1">
+        <v>82.716049380000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1">
+        <v>96.2962962963</v>
+      </c>
+      <c r="C40" s="1">
+        <v>96.296296299999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1">
+        <v>98.765432098800005</v>
+      </c>
+      <c r="C41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1">
+        <v>97.530864197499994</v>
+      </c>
+      <c r="C42" s="1">
+        <v>97.530864199999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1">
+        <v>88.888888888899999</v>
+      </c>
+      <c r="C43" s="1">
+        <v>91.358024689999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>81</v>
+      </c>
+      <c r="B44" s="1">
+        <v>95.061728395100005</v>
+      </c>
+      <c r="C44" s="1">
+        <v>92.592592589999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1">
+        <v>97.530864197499994</v>
+      </c>
+      <c r="C45" s="1">
+        <v>95.061728400000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>81</v>
+      </c>
+      <c r="B46" s="1">
+        <v>96.2962962963</v>
+      </c>
+      <c r="C46" s="1">
+        <v>98.765432099999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>81</v>
+      </c>
+      <c r="B47" s="1">
+        <v>95.061728395100005</v>
+      </c>
+      <c r="C47" s="1">
+        <v>95.061728400000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1">
+        <v>97.530864197499994</v>
+      </c>
+      <c r="C48" s="1">
+        <v>98.765432099999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1">
+        <v>88.888888888899999</v>
+      </c>
+      <c r="C49" s="1">
+        <v>87.654320990000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>81</v>
+      </c>
+      <c r="B50" s="1">
+        <v>88.888888888899999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>90.123456790000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>81</v>
+      </c>
+      <c r="B51" s="1">
+        <v>95.061728395100005</v>
+      </c>
+      <c r="C51" s="1">
+        <v>93.827160489999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>81</v>
+      </c>
+      <c r="B52" s="1">
+        <v>93.827160493799994</v>
+      </c>
+      <c r="C52" s="1">
+        <v>92.592592589999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>81</v>
+      </c>
+      <c r="B53" s="1">
+        <v>93.827160493799994</v>
+      </c>
+      <c r="C53" s="1">
+        <v>93.827160489999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1">
+        <v>98.765432098800005</v>
+      </c>
+      <c r="C54" s="1">
+        <v>97.530864199999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>81</v>
+      </c>
+      <c r="B55" s="1">
+        <v>91.358024691400004</v>
+      </c>
+      <c r="C55" s="1">
+        <v>93.827160489999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>81</v>
+      </c>
+      <c r="B56" s="1">
+        <v>96.2962962963</v>
+      </c>
+      <c r="C56" s="1">
+        <v>98.765432099999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>81</v>
+      </c>
+      <c r="B57" s="1">
+        <v>96.2962962963</v>
+      </c>
+      <c r="C57" s="1">
+        <v>97.530864199999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>81</v>
+      </c>
+      <c r="B58" s="1">
+        <v>95.061728395100005</v>
+      </c>
+      <c r="C58" s="1">
+        <v>96.296296299999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1">
+        <v>98.765432098800005</v>
+      </c>
+      <c r="C59" s="1">
+        <v>98.765432099999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>81</v>
+      </c>
+      <c r="B60" s="1">
+        <v>95.061728395100005</v>
+      </c>
+      <c r="C60" s="1">
+        <v>92.592592589999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>81</v>
+      </c>
+      <c r="B61" s="1">
+        <v>85.185185185199998</v>
+      </c>
+      <c r="C61" s="1">
+        <v>83.950617280000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1">
+        <v>88.888888888899999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>90.123456790000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1">
+        <v>96.3414634146</v>
+      </c>
+      <c r="C63" s="1">
+        <v>92.68292683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>98.780487804900005</v>
+      </c>
+      <c r="C64" s="1">
+        <v>97.56097561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1">
+        <v>98.780487804900005</v>
+      </c>
+      <c r="C65" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>82</v>
+      </c>
+      <c r="B66" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C66" s="1">
+        <v>98.780487800000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>82</v>
+      </c>
+      <c r="B67" s="1">
+        <v>98.780487804900005</v>
+      </c>
+      <c r="C67" s="1">
+        <v>98.780487800000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1">
+        <v>95.121951219500005</v>
+      </c>
+      <c r="C68" s="1">
+        <v>93.902439020000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1">
+        <v>95.121951219500005</v>
+      </c>
+      <c r="C69" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>82</v>
+      </c>
+      <c r="B70" s="1">
+        <v>96.3414634146</v>
+      </c>
+      <c r="C70" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1">
+        <v>93.902439024399996</v>
+      </c>
+      <c r="C71" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>82</v>
+      </c>
+      <c r="B72" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C72" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C73" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1">
+        <v>98.780487804900005</v>
+      </c>
+      <c r="C74" s="1">
+        <v>98.780487800000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C75" s="1">
+        <v>97.56097561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>82</v>
+      </c>
+      <c r="B76" s="1">
+        <v>98.780487804900005</v>
+      </c>
+      <c r="C76" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C77" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C78" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1">
+        <v>89.024390243900001</v>
+      </c>
+      <c r="C79" s="1">
+        <v>87.804878049999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>82</v>
+      </c>
+      <c r="B80" s="1">
+        <v>91.463414634100005</v>
+      </c>
+      <c r="C80" s="1">
+        <v>92.68292683</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1">
+        <v>93.902439024399996</v>
+      </c>
+      <c r="C81" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1">
+        <v>95.121951219500005</v>
+      </c>
+      <c r="C82" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>96.3414634146</v>
+      </c>
+      <c r="C83" s="1">
+        <v>93.902439020000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>90.243902438999996</v>
+      </c>
+      <c r="C84" s="1">
+        <v>91.463414630000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1">
+        <v>80.487804878000006</v>
+      </c>
+      <c r="C85" s="1">
+        <v>80.487804879999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>89.024390243900001</v>
+      </c>
+      <c r="C86" s="1">
+        <v>92.68292683</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1">
+        <v>89.024390243900001</v>
+      </c>
+      <c r="C87" s="1">
+        <v>89.024390240000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>82</v>
+      </c>
+      <c r="B88" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C88" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C89" s="1">
+        <v>98.780487800000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>82</v>
+      </c>
+      <c r="B90" s="1">
+        <v>95.121951219500005</v>
+      </c>
+      <c r="C90" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>82</v>
+      </c>
+      <c r="B91" s="1">
+        <v>92.682926829300001</v>
+      </c>
+      <c r="C91" s="1">
+        <v>91.463414630000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C92" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>82</v>
+      </c>
+      <c r="B93" s="1">
+        <v>93.902439024399996</v>
+      </c>
+      <c r="C93" s="1">
+        <v>93.902439020000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>82</v>
+      </c>
+      <c r="B94" s="1">
+        <v>95.121951219500005</v>
+      </c>
+      <c r="C94" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>82</v>
+      </c>
+      <c r="B95" s="1">
+        <v>97.560975609799996</v>
+      </c>
+      <c r="C95" s="1">
+        <v>96.341463410000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>82</v>
+      </c>
+      <c r="B96" s="1">
+        <v>92.682926829300001</v>
+      </c>
+      <c r="C96" s="1">
+        <v>95.12195122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>88</v>
+      </c>
+      <c r="B97" s="1">
+        <v>94.318181818200003</v>
+      </c>
+      <c r="C97" s="1">
+        <v>94.318181820000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1">
+        <v>96.666666666699996</v>
+      </c>
+      <c r="C98" s="1">
+        <v>93.333333330000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>106</v>
+      </c>
+      <c r="B99" s="1">
+        <v>94.3396226415</v>
+      </c>
+      <c r="C99" s="1">
+        <v>91.509433959999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>108</v>
+      </c>
+      <c r="B100" s="1">
+        <v>88.888888888899999</v>
+      </c>
+      <c r="C100" s="1">
+        <v>88.888888890000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>111</v>
+      </c>
+      <c r="B101" s="1">
+        <v>73.873873873899996</v>
+      </c>
+      <c r="C101" s="1">
+        <v>71.171171169999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>126</v>
+      </c>
+      <c r="B102" s="1">
+        <v>87.301587301599994</v>
+      </c>
+      <c r="C102" s="1">
+        <v>85.714285709999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>131</v>
+      </c>
+      <c r="B103" s="1">
+        <v>74.045801526700004</v>
+      </c>
+      <c r="C103" s="1">
+        <v>68.702290079999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>147</v>
+      </c>
+      <c r="B104" s="1">
+        <v>90.476190476200003</v>
+      </c>
+      <c r="C104" s="1">
+        <v>87.755102039999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>156</v>
+      </c>
+      <c r="B105" s="1">
+        <v>90.384615384599996</v>
+      </c>
+      <c r="C105" s="1">
+        <v>90.38461538</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1">
+        <v>86.666666666699996</v>
+      </c>
+      <c r="C106" s="1">
+        <v>86.060606059999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>165</v>
+      </c>
+      <c r="B107" s="1">
+        <v>84.848484848499993</v>
+      </c>
+      <c r="C107" s="1">
+        <v>84.242424240000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>170</v>
+      </c>
+      <c r="B108" s="1">
+        <v>90</v>
+      </c>
+      <c r="C108" s="1">
+        <v>89.41176471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>172</v>
+      </c>
+      <c r="B109" s="1">
+        <v>86.046511627900003</v>
+      </c>
+      <c r="C109" s="1">
+        <v>87.20930233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>173</v>
+      </c>
+      <c r="B110" s="1">
+        <v>84.3930635838</v>
+      </c>
+      <c r="C110" s="1">
+        <v>82.658959539999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>173</v>
+      </c>
+      <c r="B111" s="1">
+        <v>94.219653179199994</v>
+      </c>
+      <c r="C111" s="1">
+        <v>93.063583820000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>174</v>
+      </c>
+      <c r="B112" s="1">
+        <v>94.827586206899994</v>
+      </c>
+      <c r="C112" s="1">
+        <v>95.977011489999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>174</v>
+      </c>
+      <c r="B113" s="1">
+        <v>93.678160919500002</v>
+      </c>
+      <c r="C113" s="1">
+        <v>93.103448279999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>174</v>
+      </c>
+      <c r="B114" s="1">
+        <v>86.781609195399994</v>
+      </c>
+      <c r="C114" s="1">
+        <v>86.781609200000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>175</v>
+      </c>
+      <c r="B115" s="1">
+        <v>88.571428571400006</v>
+      </c>
+      <c r="C115" s="1">
+        <v>89.142857140000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>175</v>
+      </c>
+      <c r="B116" s="1">
+        <v>92</v>
+      </c>
+      <c r="C116" s="1">
+        <v>91.428571430000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>175</v>
+      </c>
+      <c r="B117" s="1">
+        <v>87.428571428599994</v>
+      </c>
+      <c r="C117" s="1">
+        <v>87.428571430000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>176</v>
+      </c>
+      <c r="B118" s="1">
+        <v>89.204545454500007</v>
+      </c>
+      <c r="C118" s="1">
+        <v>90.340909089999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>176</v>
+      </c>
+      <c r="B119" s="1">
+        <v>82.954545454500007</v>
+      </c>
+      <c r="C119" s="1">
+        <v>68.181818179999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>176</v>
+      </c>
+      <c r="B120" s="1">
+        <v>82.954545454500007</v>
+      </c>
+      <c r="C120" s="1">
+        <v>83.522727270000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>176</v>
+      </c>
+      <c r="B121" s="1">
+        <v>88.636363636400006</v>
+      </c>
+      <c r="C121" s="1">
+        <v>86.931818179999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>176</v>
+      </c>
+      <c r="B122" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="C122" s="1">
+        <v>86.363636360000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>176</v>
+      </c>
+      <c r="B123" s="1">
+        <v>85.795454545499993</v>
+      </c>
+      <c r="C123" s="1">
+        <v>84.090909089999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>176</v>
+      </c>
+      <c r="B124" s="1">
+        <v>90.909090909100001</v>
+      </c>
+      <c r="C124" s="1">
+        <v>90.340909089999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>176</v>
+      </c>
+      <c r="B125" s="1">
+        <v>93.181818181799997</v>
+      </c>
+      <c r="C125" s="1">
+        <v>92.045454550000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>176</v>
+      </c>
+      <c r="B126" s="1">
+        <v>86.931818181799997</v>
+      </c>
+      <c r="C126" s="1">
+        <v>86.931818179999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>177</v>
+      </c>
+      <c r="B127" s="1">
+        <v>90.395480226000004</v>
+      </c>
+      <c r="C127" s="1">
+        <v>91.52542373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>177</v>
+      </c>
+      <c r="B128" s="1">
+        <v>89.830508474599995</v>
+      </c>
+      <c r="C128" s="1">
+        <v>90.960451980000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>177</v>
+      </c>
+      <c r="B129" s="1">
+        <v>84.180790960500005</v>
+      </c>
+      <c r="C129" s="1">
+        <v>84.180790959999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>177</v>
+      </c>
+      <c r="B130" s="1">
+        <v>92.090395480200002</v>
+      </c>
+      <c r="C130" s="1">
+        <v>92.090395479999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>177</v>
+      </c>
+      <c r="B131" s="1">
+        <v>83.0508474576</v>
+      </c>
+      <c r="C131" s="1">
+        <v>83.615819209999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>177</v>
+      </c>
+      <c r="B132" s="1">
+        <v>88.135593220299995</v>
+      </c>
+      <c r="C132" s="1">
+        <v>89.26553672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>177</v>
+      </c>
+      <c r="B133" s="1">
+        <v>86.440677966099997</v>
+      </c>
+      <c r="C133" s="1">
+        <v>86.440677969999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>178</v>
+      </c>
+      <c r="B134" s="1">
+        <v>91.573033707899995</v>
+      </c>
+      <c r="C134" s="1">
+        <v>92.696629209999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>178</v>
+      </c>
+      <c r="B135" s="1">
+        <v>91.011235955100005</v>
+      </c>
+      <c r="C135" s="1">
+        <v>91.573033710000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>178</v>
+      </c>
+      <c r="B136" s="1">
+        <v>86.5168539326</v>
+      </c>
+      <c r="C136" s="1">
+        <v>85.393258430000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>178</v>
+      </c>
+      <c r="B137" s="1">
+        <v>88.202247190999998</v>
+      </c>
+      <c r="C137" s="1">
+        <v>91.573033710000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>189</v>
+      </c>
+      <c r="B138" s="1">
+        <v>85.714285714300004</v>
+      </c>
+      <c r="C138" s="1">
+        <v>86.77248677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>190</v>
+      </c>
+      <c r="B139" s="1">
+        <v>91.578947368399994</v>
+      </c>
+      <c r="C139" s="1">
+        <v>92.105263160000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>196</v>
+      </c>
+      <c r="B140" s="1">
+        <v>91.836734693899999</v>
+      </c>
+      <c r="C140" s="1">
+        <v>90.816326529999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>205</v>
+      </c>
+      <c r="B141" s="1">
+        <v>92.682926829300001</v>
+      </c>
+      <c r="C141" s="1">
+        <v>93.170731709999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>207</v>
+      </c>
+      <c r="B142" s="1">
+        <v>95.169082125599999</v>
+      </c>
+      <c r="C142" s="1">
+        <v>94.20289855</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>215</v>
+      </c>
+      <c r="B143" s="1">
+        <v>83.720930232599997</v>
+      </c>
+      <c r="C143" s="1">
+        <v>83.720930229999993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>220</v>
+      </c>
+      <c r="B144" s="1">
+        <v>94.545454545499993</v>
+      </c>
+      <c r="C144" s="1">
+        <v>94.545454550000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>232</v>
+      </c>
+      <c r="B145" s="1">
+        <v>92.241379310300005</v>
+      </c>
+      <c r="C145" s="1">
+        <v>91.810344830000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>233</v>
+      </c>
+      <c r="B146" s="1">
+        <v>90.987124463499995</v>
+      </c>
+      <c r="C146" s="1">
+        <v>90.12875536</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>244</v>
+      </c>
+      <c r="B147" s="1">
+        <v>91.803278688500001</v>
+      </c>
+      <c r="C147" s="1">
+        <v>91.803278689999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>264</v>
+      </c>
+      <c r="B148" s="1">
+        <v>89.015151515200003</v>
+      </c>
+      <c r="C148" s="1">
+        <v>89.015151520000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>268</v>
+      </c>
+      <c r="B149" s="1">
+        <v>93.6567164179</v>
+      </c>
+      <c r="C149" s="1">
+        <v>93.283582089999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>269</v>
+      </c>
+      <c r="B150" s="1">
+        <v>95.167286245400007</v>
+      </c>
+      <c r="C150" s="1">
+        <v>94.79553903</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>274</v>
+      </c>
+      <c r="B151" s="1">
+        <v>74.452554744500006</v>
+      </c>
+      <c r="C151" s="1">
+        <v>61.678832120000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>275</v>
+      </c>
+      <c r="B152" s="1">
+        <v>94.909090909100001</v>
+      </c>
+      <c r="C152" s="1">
+        <v>93.454545449999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>275</v>
+      </c>
+      <c r="B153" s="1">
+        <v>95.272727272699996</v>
+      </c>
+      <c r="C153" s="1">
+        <v>94.181818179999993</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>275</v>
+      </c>
+      <c r="B154" s="1">
+        <v>90.181818181799997</v>
+      </c>
+      <c r="C154" s="1">
+        <v>90.909090910000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>275</v>
+      </c>
+      <c r="B155" s="1">
+        <v>93.454545454500007</v>
+      </c>
+      <c r="C155" s="1">
+        <v>92.727272729999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>279</v>
+      </c>
+      <c r="B156" s="1">
+        <v>91.397849462400004</v>
+      </c>
+      <c r="C156" s="1">
+        <v>91.397849460000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>279</v>
+      </c>
+      <c r="B157" s="1">
+        <v>88.530465949800004</v>
+      </c>
+      <c r="C157" s="1">
+        <v>88.172043009999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>279</v>
+      </c>
+      <c r="B158" s="1">
+        <v>93.189964157700004</v>
+      </c>
+      <c r="C158" s="1">
+        <v>92.114695339999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>280</v>
+      </c>
+      <c r="B159" s="1">
+        <v>91.428571428599994</v>
+      </c>
+      <c r="C159" s="1">
+        <v>90.714285709999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>280</v>
+      </c>
+      <c r="B160" s="1">
+        <v>95</v>
+      </c>
+      <c r="C160" s="1">
+        <v>94.285714290000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>281</v>
+      </c>
+      <c r="B161" s="1">
+        <v>94.661921708199998</v>
+      </c>
+      <c r="C161" s="1">
+        <v>93.238434159999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>282</v>
+      </c>
+      <c r="B162" s="1">
+        <v>91.843971631200006</v>
+      </c>
+      <c r="C162" s="1">
+        <v>91.843971629999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>282</v>
+      </c>
+      <c r="B163" s="1">
+        <v>96.808510638300007</v>
+      </c>
+      <c r="C163" s="1">
+        <v>95.390070919999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>282</v>
+      </c>
+      <c r="B164" s="1">
+        <v>88.652482269499998</v>
+      </c>
+      <c r="C164" s="1">
+        <v>88.652482269999993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>283</v>
+      </c>
+      <c r="B165" s="1">
+        <v>80.918727915199995</v>
+      </c>
+      <c r="C165" s="1">
+        <v>79.505300349999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>283</v>
+      </c>
+      <c r="B166" s="1">
+        <v>94.699646643099996</v>
+      </c>
+      <c r="C166" s="1">
+        <v>93.286219079999995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>283</v>
+      </c>
+      <c r="B167" s="1">
+        <v>84.452296819799997</v>
+      </c>
+      <c r="C167" s="1">
+        <v>78.798586569999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>283</v>
+      </c>
+      <c r="B168" s="1">
+        <v>93.992932862200007</v>
+      </c>
+      <c r="C168" s="1">
+        <v>93.639575969999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>283</v>
+      </c>
+      <c r="B169" s="1">
+        <v>85.865724381600003</v>
+      </c>
+      <c r="C169" s="1">
+        <v>85.512367490000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>283</v>
+      </c>
+      <c r="B170" s="1">
+        <v>95.053003533600005</v>
+      </c>
+      <c r="C170" s="1">
+        <v>93.992932859999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>284</v>
+      </c>
+      <c r="B171" s="1">
+        <v>93.309859154899996</v>
+      </c>
+      <c r="C171" s="1">
+        <v>91.901408450000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>284</v>
+      </c>
+      <c r="B172" s="1">
+        <v>93.309859154899996</v>
+      </c>
+      <c r="C172" s="1">
+        <v>93.661971829999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>286</v>
+      </c>
+      <c r="B173" s="1">
+        <v>77.622377622399995</v>
+      </c>
+      <c r="C173" s="1">
+        <v>72.727272729999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>286</v>
+      </c>
+      <c r="B174" s="1">
+        <v>88.111888111900001</v>
+      </c>
+      <c r="C174" s="1">
+        <v>88.111888109999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>286</v>
+      </c>
+      <c r="B175" s="1">
+        <v>83.566433566399994</v>
+      </c>
+      <c r="C175" s="1">
+        <v>76.92307692</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>287</v>
+      </c>
+      <c r="B176" s="1">
+        <v>91.986062717799996</v>
+      </c>
+      <c r="C176" s="1">
+        <v>90.940766550000006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>300</v>
+      </c>
+      <c r="B177" s="1">
+        <v>90.333333333300004</v>
+      </c>
+      <c r="C177" s="1">
+        <v>90.333333330000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>333</v>
+      </c>
+      <c r="B178" s="1">
+        <v>85.585585585600001</v>
+      </c>
+      <c r="C178" s="1">
+        <v>85.585585589999994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>337</v>
+      </c>
+      <c r="B179" s="1">
+        <v>88.724035608299999</v>
+      </c>
+      <c r="C179" s="1">
+        <v>89.020771510000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>338</v>
+      </c>
+      <c r="B180" s="1">
+        <v>89.053254437899994</v>
+      </c>
+      <c r="C180" s="1">
+        <v>89.053254440000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>342</v>
+      </c>
+      <c r="B181" s="1">
+        <v>90.9356725146</v>
+      </c>
+      <c r="C181" s="1">
+        <v>90.935672510000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>344</v>
+      </c>
+      <c r="B182" s="1">
+        <v>89.244186046500005</v>
+      </c>
+      <c r="C182" s="1">
+        <v>89.244186049999996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>345</v>
+      </c>
+      <c r="B183" s="1">
+        <v>86.086956521700003</v>
+      </c>
+      <c r="C183" s="1">
+        <v>85.79710145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>345</v>
+      </c>
+      <c r="B184" s="1">
+        <v>87.246376811600001</v>
+      </c>
+      <c r="C184" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>345</v>
+      </c>
+      <c r="B185" s="1">
+        <v>90.724637681199994</v>
+      </c>
+      <c r="C185" s="1">
+        <v>90.724637680000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>347</v>
+      </c>
+      <c r="B186" s="1">
+        <v>91.9308357349</v>
+      </c>
+      <c r="C186" s="1">
+        <v>87.608069159999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>348</v>
+      </c>
+      <c r="B187" s="1">
+        <v>85.919540229899994</v>
+      </c>
+      <c r="C187" s="1">
+        <v>85.919540229999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>349</v>
+      </c>
+      <c r="B188" s="1">
+        <v>79.083094555900004</v>
+      </c>
+      <c r="C188" s="1">
+        <v>61.318051580000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>352</v>
+      </c>
+      <c r="B189" s="1">
+        <v>87.784090909100001</v>
+      </c>
+      <c r="C189" s="1">
+        <v>88.068181820000007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>355</v>
+      </c>
+      <c r="B190" s="1">
+        <v>83.661971831000002</v>
+      </c>
+      <c r="C190" s="1">
+        <v>79.436619719999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>355</v>
+      </c>
+      <c r="B191" s="1">
+        <v>86.197183098599993</v>
+      </c>
+      <c r="C191" s="1">
+        <v>80.281690139999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>355</v>
+      </c>
+      <c r="B192" s="1">
+        <v>90.704225352099996</v>
+      </c>
+      <c r="C192" s="1">
+        <v>90.704225350000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>355</v>
+      </c>
+      <c r="B193" s="1">
+        <v>80.563380281700006</v>
+      </c>
+      <c r="C193" s="1">
+        <v>73.239436620000006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>356</v>
+      </c>
+      <c r="B194" s="1">
+        <v>91.573033707899995</v>
+      </c>
+      <c r="C194" s="1">
+        <v>89.325842699999995</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>356</v>
+      </c>
+      <c r="B195" s="1">
+        <v>87.921348314599996</v>
+      </c>
+      <c r="C195" s="1">
+        <v>86.235955059999995</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>357</v>
+      </c>
+      <c r="B196" s="1">
+        <v>92.1568627451</v>
+      </c>
+      <c r="C196" s="1">
+        <v>92.156862750000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>357</v>
+      </c>
+      <c r="B197" s="1">
+        <v>88.235294117600006</v>
+      </c>
+      <c r="C197" s="1">
+        <v>88.235294120000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>358</v>
+      </c>
+      <c r="B198" s="1">
+        <v>85.474860335200006</v>
+      </c>
+      <c r="C198" s="1">
+        <v>83.798882680000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>359</v>
+      </c>
+      <c r="B199" s="1">
+        <v>90.529247910899997</v>
+      </c>
+      <c r="C199" s="1">
+        <v>89.136490249999994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>359</v>
+      </c>
+      <c r="B200" s="1">
+        <v>86.072423398300003</v>
+      </c>
+      <c r="C200" s="1">
+        <v>86.072423400000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>359</v>
+      </c>
+      <c r="B201" s="1">
+        <v>90.250696378800001</v>
+      </c>
+      <c r="C201" s="1">
+        <v>90.250696379999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>360</v>
+      </c>
+      <c r="B202" s="1">
+        <v>89.166666666699996</v>
+      </c>
+      <c r="C202" s="1">
+        <v>88.888888890000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>360</v>
+      </c>
+      <c r="B203" s="1">
+        <v>85.833333333300004</v>
+      </c>
+      <c r="C203" s="1">
+        <v>83.611111109999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>361</v>
+      </c>
+      <c r="B204" s="1">
+        <v>82.825484764500004</v>
+      </c>
+      <c r="C204" s="1">
+        <v>70.91412742</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>362</v>
+      </c>
+      <c r="B205" s="1">
+        <v>89.779005524900001</v>
+      </c>
+      <c r="C205" s="1">
+        <v>86.740331490000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>363</v>
+      </c>
+      <c r="B206" s="1">
+        <v>85.674931129499996</v>
+      </c>
+      <c r="C206" s="1">
+        <v>73.278236910000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>364</v>
+      </c>
+      <c r="B207" s="1">
+        <v>92.032967033000006</v>
+      </c>
+      <c r="C207" s="1">
+        <v>92.032967029999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>365</v>
+      </c>
+      <c r="B208" s="1">
+        <v>84.383561643799993</v>
+      </c>
+      <c r="C208" s="1">
+        <v>79.452054790000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>366</v>
+      </c>
+      <c r="B209" s="1">
+        <v>89.617486338800006</v>
+      </c>
+      <c r="C209" s="1">
+        <v>84.699453550000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>395</v>
+      </c>
+      <c r="B210" s="1">
+        <v>83.544303797500007</v>
+      </c>
+      <c r="C210" s="1">
+        <v>74.43037975</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>412</v>
+      </c>
+      <c r="B211" s="1">
+        <v>91.747572815500007</v>
+      </c>
+      <c r="C211" s="1">
+        <v>91.990291260000006</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>417</v>
+      </c>
+      <c r="B212" s="1">
+        <v>90.167865707399997</v>
+      </c>
+      <c r="C212" s="1">
+        <v>90.167865710000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>420</v>
+      </c>
+      <c r="B213" s="1">
+        <v>90.476190476200003</v>
+      </c>
+      <c r="C213" s="1">
+        <v>90.47619048</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>421</v>
+      </c>
+      <c r="B214" s="1">
+        <v>87.410926365799995</v>
+      </c>
+      <c r="C214" s="1">
+        <v>82.897862230000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>423</v>
+      </c>
+      <c r="B215" s="1">
+        <v>84.869976359299997</v>
+      </c>
+      <c r="C215" s="1">
+        <v>76.832151300000007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>424</v>
+      </c>
+      <c r="B216" s="1">
+        <v>90.330188679200006</v>
+      </c>
+      <c r="C216" s="1">
+        <v>90.566037739999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>425</v>
+      </c>
+      <c r="B217" s="1">
+        <v>86.823529411799996</v>
+      </c>
+      <c r="C217" s="1">
+        <v>83.764705879999994</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>428</v>
+      </c>
+      <c r="B218" s="1">
+        <v>89.252336448600005</v>
+      </c>
+      <c r="C218" s="1">
+        <v>89.252336450000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>429</v>
+      </c>
+      <c r="B219" s="1">
+        <v>87.179487179500001</v>
+      </c>
+      <c r="C219" s="1">
+        <v>87.41258741</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>430</v>
+      </c>
+      <c r="B220" s="1">
+        <v>87.441860465100007</v>
+      </c>
+      <c r="C220" s="1">
+        <v>86.976744190000005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>431</v>
+      </c>
+      <c r="B221" s="1">
+        <v>93.967517401400002</v>
+      </c>
+      <c r="C221" s="1">
+        <v>93.967517400000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>431</v>
+      </c>
+      <c r="B222" s="1">
+        <v>86.774941995399999</v>
+      </c>
+      <c r="C222" s="1">
+        <v>83.062645009999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>431</v>
+      </c>
+      <c r="B223" s="1">
+        <v>84.686774942</v>
+      </c>
+      <c r="C223" s="1">
+        <v>84.454756380000006</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>432</v>
+      </c>
+      <c r="B224" s="1">
+        <v>92.129629629600004</v>
+      </c>
+      <c r="C224" s="1">
+        <v>92.129629629999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>434</v>
+      </c>
+      <c r="B225" s="1">
+        <v>86.635944700500005</v>
+      </c>
+      <c r="C225" s="1">
+        <v>82.258064520000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>434</v>
+      </c>
+      <c r="B226" s="1">
+        <v>86.866359446999994</v>
+      </c>
+      <c r="C226" s="1">
+        <v>74.654377879999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>434</v>
+      </c>
+      <c r="B227" s="1">
+        <v>81.105990783400003</v>
+      </c>
+      <c r="C227" s="1">
+        <v>74.654377879999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>435</v>
+      </c>
+      <c r="B228" s="1">
+        <v>86.666666666699996</v>
+      </c>
+      <c r="C228" s="1">
+        <v>83.678160919999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>435</v>
+      </c>
+      <c r="B229" s="1">
+        <v>83.448275862100004</v>
+      </c>
+      <c r="C229" s="1">
+        <v>78.390804599999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>437</v>
+      </c>
+      <c r="B230" s="1">
+        <v>87.185354691100002</v>
+      </c>
+      <c r="C230" s="1">
+        <v>81.235697939999994</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>437</v>
+      </c>
+      <c r="B231" s="1">
+        <v>87.871853546899999</v>
+      </c>
+      <c r="C231" s="1">
+        <v>82.151029750000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>437</v>
+      </c>
+      <c r="B232" s="1">
+        <v>90.846681922200005</v>
+      </c>
+      <c r="C232" s="1">
+        <v>90.846681919999995</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>437</v>
+      </c>
+      <c r="B233" s="1">
+        <v>87.185354691100002</v>
+      </c>
+      <c r="C233" s="1">
+        <v>86.041189930000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>438</v>
+      </c>
+      <c r="B234" s="1">
+        <v>89.269406392700006</v>
+      </c>
+      <c r="C234" s="1">
+        <v>89.041095889999994</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>438</v>
+      </c>
+      <c r="B235" s="1">
+        <v>88.356164383600003</v>
+      </c>
+      <c r="C235" s="1">
+        <v>88.127853880000004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>438</v>
+      </c>
+      <c r="B236" s="1">
+        <v>92.465753424699997</v>
+      </c>
+      <c r="C236" s="1">
+        <v>92.465753419999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>438</v>
+      </c>
+      <c r="B237" s="1">
+        <v>86.0730593607</v>
+      </c>
+      <c r="C237" s="1">
+        <v>85.159817349999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>439</v>
+      </c>
+      <c r="B238" s="1">
+        <v>81.548974943100006</v>
+      </c>
+      <c r="C238" s="1">
+        <v>76.30979499</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>439</v>
+      </c>
+      <c r="B239" s="1">
+        <v>86.104783599100003</v>
+      </c>
+      <c r="C239" s="1">
+        <v>84.510250569999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>439</v>
+      </c>
+      <c r="B240" s="1">
+        <v>89.521640091099997</v>
+      </c>
+      <c r="C240" s="1">
+        <v>89.749430520000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>452</v>
+      </c>
+      <c r="B241" s="1">
+        <v>91.1504424779</v>
+      </c>
+      <c r="C241" s="1">
+        <v>91.150442479999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>472</v>
+      </c>
+      <c r="B242" s="1">
+        <v>88.771186440700006</v>
+      </c>
+      <c r="C242" s="1">
+        <v>88.771186439999994</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>474</v>
+      </c>
+      <c r="B243" s="1">
+        <v>85.443037974700005</v>
+      </c>
+      <c r="C243" s="1">
+        <v>75.105485229999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>476</v>
+      </c>
+      <c r="B244" s="1">
+        <v>91.176470588200004</v>
+      </c>
+      <c r="C244" s="1">
+        <v>91.176470589999994</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>488</v>
+      </c>
+      <c r="B245" s="1">
+        <v>82.786885245899995</v>
+      </c>
+      <c r="C245" s="1">
+        <v>76.229508199999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>493</v>
+      </c>
+      <c r="B246" s="1">
+        <v>90.263691683600001</v>
+      </c>
+      <c r="C246" s="1">
+        <v>90.263691679999994</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>495</v>
+      </c>
+      <c r="B247" s="1">
+        <v>91.111111111100001</v>
+      </c>
+      <c r="C247" s="1">
+        <v>91.313131310000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>495</v>
+      </c>
+      <c r="B248" s="1">
+        <v>91.717171717200003</v>
+      </c>
+      <c r="C248" s="1">
+        <v>91.717171719999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>496</v>
+      </c>
+      <c r="B249" s="1">
+        <v>83.467741935500001</v>
+      </c>
+      <c r="C249" s="1">
+        <v>80.040322579999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>498</v>
+      </c>
+      <c r="B250" s="1">
+        <v>88.152610441799993</v>
+      </c>
+      <c r="C250" s="1">
+        <v>88.353413649999993</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>499</v>
+      </c>
+      <c r="B251" s="1">
+        <v>88.977955911799995</v>
+      </c>
+      <c r="C251" s="1">
+        <v>88.977955910000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>503</v>
+      </c>
+      <c r="B252" s="1">
+        <v>90.8548707753</v>
+      </c>
+      <c r="C252" s="1">
+        <v>89.463220680000006</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>503</v>
+      </c>
+      <c r="B253" s="1">
+        <v>91.451292246500003</v>
+      </c>
+      <c r="C253" s="1">
+        <v>91.053677930000006</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>503</v>
+      </c>
+      <c r="B254" s="1">
+        <v>86.282306163000001</v>
+      </c>
+      <c r="C254" s="1">
+        <v>82.703777340000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>503</v>
+      </c>
+      <c r="B255" s="1">
+        <v>92.047713717700006</v>
+      </c>
+      <c r="C255" s="1">
+        <v>92.445328029999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>506</v>
+      </c>
+      <c r="B256" s="1">
+        <v>87.154150197600003</v>
+      </c>
+      <c r="C256" s="1">
+        <v>84.189723319999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>506</v>
+      </c>
+      <c r="B257" s="1">
+        <v>87.154150197600003</v>
+      </c>
+      <c r="C257" s="1">
+        <v>86.758893279999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>508</v>
+      </c>
+      <c r="B258" s="1">
+        <v>80.3149606299</v>
+      </c>
+      <c r="C258" s="1">
+        <v>76.771653540000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>508</v>
+      </c>
+      <c r="B259" s="1">
+        <v>82.874015748000005</v>
+      </c>
+      <c r="C259" s="1">
+        <v>83.464566930000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>509</v>
+      </c>
+      <c r="B260" s="1">
+        <v>84.479371316300004</v>
+      </c>
+      <c r="C260" s="1">
+        <v>73.67387033</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>510</v>
+      </c>
+      <c r="B261" s="1">
+        <v>90.392156862700006</v>
+      </c>
+      <c r="C261" s="1">
+        <v>90.39215686</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>510</v>
+      </c>
+      <c r="B262" s="1">
+        <v>92.1568627451</v>
+      </c>
+      <c r="C262" s="1">
+        <v>92.156862750000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>511</v>
+      </c>
+      <c r="B263" s="1">
+        <v>75.929549902199994</v>
+      </c>
+      <c r="C263" s="1">
+        <v>55.772994130000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>512</v>
+      </c>
+      <c r="B264" s="1">
+        <v>82.03125</v>
+      </c>
+      <c r="C264" s="1">
+        <v>74.21875</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>512</v>
+      </c>
+      <c r="B265" s="1">
+        <v>82.8125</v>
+      </c>
+      <c r="C265" s="1">
+        <v>71.484375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>512</v>
+      </c>
+      <c r="B266" s="1">
+        <v>90.8203125</v>
+      </c>
+      <c r="C266" s="1">
+        <v>84.765625</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>512</v>
+      </c>
+      <c r="B267" s="1">
+        <v>80.2734375</v>
+      </c>
+      <c r="C267" s="1">
+        <v>72.8515625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>515</v>
+      </c>
+      <c r="B268" s="1">
+        <v>89.708737864100002</v>
+      </c>
+      <c r="C268" s="1">
+        <v>89.320388350000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>517</v>
+      </c>
+      <c r="B269" s="1">
+        <v>85.106382978699997</v>
+      </c>
+      <c r="C269" s="1">
+        <v>76.595744679999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>518</v>
+      </c>
+      <c r="B270" s="1">
+        <v>75.868725868699997</v>
+      </c>
+      <c r="C270" s="1">
+        <v>59.266409269999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>540</v>
+      </c>
+      <c r="B271" s="1">
+        <v>85.740740740700005</v>
+      </c>
+      <c r="C271" s="1">
+        <v>72.037037040000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>559</v>
+      </c>
+      <c r="B272" s="1">
+        <v>87.835420393600003</v>
+      </c>
+      <c r="C272" s="1">
+        <v>87.835420389999996</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>562</v>
+      </c>
+      <c r="B273" s="1">
+        <v>91.103202847000006</v>
+      </c>
+      <c r="C273" s="1">
+        <v>91.103202850000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>580</v>
+      </c>
+      <c r="B274" s="1">
+        <v>82.241379310300005</v>
+      </c>
+      <c r="C274" s="1">
+        <v>73.103448279999995</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>585</v>
+      </c>
+      <c r="B275" s="1">
+        <v>92.820512820499999</v>
+      </c>
+      <c r="C275" s="1">
+        <v>92.136752139999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>591</v>
+      </c>
+      <c r="B276" s="1">
+        <v>81.895093062599997</v>
+      </c>
+      <c r="C276" s="1">
+        <v>71.912013540000004</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>594</v>
+      </c>
+      <c r="B277" s="1">
+        <v>80.303030303</v>
+      </c>
+      <c r="C277" s="1">
+        <v>67.003366999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>598</v>
+      </c>
+      <c r="B278" s="1">
+        <v>77.424749163900003</v>
+      </c>
+      <c r="C278" s="1">
+        <v>77.591973240000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>598</v>
+      </c>
+      <c r="B279" s="1">
+        <v>91.638795986600002</v>
+      </c>
+      <c r="C279" s="1">
+        <v>91.806020070000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>601</v>
+      </c>
+      <c r="B280" s="1">
+        <v>81.530782029999997</v>
+      </c>
+      <c r="C280" s="1">
+        <v>71.214642260000005</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>602</v>
+      </c>
+      <c r="B281" s="1">
+        <v>81.893687707599994</v>
+      </c>
+      <c r="C281" s="1">
+        <v>70.764119600000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>602</v>
+      </c>
+      <c r="B282" s="1">
+        <v>80.5647840532</v>
+      </c>
+      <c r="C282" s="1">
+        <v>70.764119600000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>602</v>
+      </c>
+      <c r="B283" s="1">
+        <v>83.720930232599997</v>
+      </c>
+      <c r="C283" s="1">
+        <v>81.229235880000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>603</v>
+      </c>
+      <c r="B284" s="1">
+        <v>87.396351575500006</v>
+      </c>
+      <c r="C284" s="1">
+        <v>87.230514099999994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>606</v>
+      </c>
+      <c r="B285" s="1">
+        <v>80.198019802000005</v>
+      </c>
+      <c r="C285" s="1">
+        <v>77.062706270000007</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>607</v>
+      </c>
+      <c r="B286" s="1">
+        <v>80.395387149900003</v>
+      </c>
+      <c r="C286" s="1">
+        <v>73.805601319999994</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>607</v>
+      </c>
+      <c r="B287" s="1">
+        <v>82.042833607899993</v>
+      </c>
+      <c r="C287" s="1">
+        <v>76.276770999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>609</v>
+      </c>
+      <c r="B288" s="1">
+        <v>89.983579638799995</v>
+      </c>
+      <c r="C288" s="1">
+        <v>89.655172410000006</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>609</v>
+      </c>
+      <c r="B289" s="1">
+        <v>79.638752052499996</v>
+      </c>
+      <c r="C289" s="1">
+        <v>63.546798029999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>610</v>
+      </c>
+      <c r="B290" s="1">
+        <v>86.7213114754</v>
+      </c>
+      <c r="C290" s="1">
+        <v>87.049180329999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>610</v>
+      </c>
+      <c r="B291" s="1">
+        <v>86.557377049199999</v>
+      </c>
+      <c r="C291" s="1">
+        <v>87.37704918</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>615</v>
+      </c>
+      <c r="B292" s="1">
+        <v>81.138211382099996</v>
+      </c>
+      <c r="C292" s="1">
+        <v>75.12195122</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>618</v>
+      </c>
+      <c r="B293" s="1">
+        <v>89.320388349500007</v>
+      </c>
+      <c r="C293" s="1">
+        <v>87.055016179999996</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>625</v>
+      </c>
+      <c r="B294" s="1">
+        <v>78.72</v>
+      </c>
+      <c r="C294" s="1">
+        <v>77.760000000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>633</v>
+      </c>
+      <c r="B295" s="1">
+        <v>80.884676145300006</v>
+      </c>
+      <c r="C295" s="1">
+        <v>71.72195893</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>635</v>
+      </c>
+      <c r="B296" s="1">
+        <v>80.157480315000001</v>
+      </c>
+      <c r="C296" s="1">
+        <v>75.905511809999993</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>652</v>
+      </c>
+      <c r="B297" s="1">
+        <v>81.748466257700002</v>
+      </c>
+      <c r="C297" s="1">
+        <v>67.024539880000006</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>656</v>
+      </c>
+      <c r="B298" s="1">
+        <v>81.554878048800006</v>
+      </c>
+      <c r="C298" s="1">
+        <v>66.615853659999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>662</v>
+      </c>
+      <c r="B299" s="1">
+        <v>79.003021148000002</v>
+      </c>
+      <c r="C299" s="1">
+        <v>69.788519640000004</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>662</v>
+      </c>
+      <c r="B300" s="1">
+        <v>82.628398791500004</v>
+      </c>
+      <c r="C300" s="1">
+        <v>70.090634440000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>667</v>
+      </c>
+      <c r="B301" s="1">
+        <v>80.059970015000005</v>
+      </c>
+      <c r="C301" s="1">
+        <v>78.710644680000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>667</v>
+      </c>
+      <c r="B302" s="1">
+        <v>79.910044977499993</v>
+      </c>
+      <c r="C302" s="1">
+        <v>60.119940030000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>668</v>
+      </c>
+      <c r="B303" s="1">
+        <v>90.868263473100001</v>
+      </c>
+      <c r="C303" s="1">
+        <v>91.317365269999996</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>671</v>
+      </c>
+      <c r="B304" s="1">
+        <v>88.077496274200001</v>
+      </c>
+      <c r="C304" s="1">
+        <v>87.183308490000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>671</v>
+      </c>
+      <c r="B305" s="1">
+        <v>94.038748137100001</v>
+      </c>
+      <c r="C305" s="1">
+        <v>94.038748139999996</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>672</v>
+      </c>
+      <c r="B306" s="1">
+        <v>82.142857142899999</v>
+      </c>
+      <c r="C306" s="1">
+        <v>64.434523810000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>673</v>
+      </c>
+      <c r="B307" s="1">
+        <v>79.940564636000005</v>
+      </c>
+      <c r="C307" s="1">
+        <v>69.687964339999994</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>674</v>
+      </c>
+      <c r="B308" s="1">
+        <v>91.839762611300003</v>
+      </c>
+      <c r="C308" s="1">
+        <v>91.839762609999994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>674</v>
+      </c>
+      <c r="B309" s="1">
+        <v>81.305637982199997</v>
+      </c>
+      <c r="C309" s="1">
+        <v>76.112759639999993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>675</v>
+      </c>
+      <c r="B310" s="1">
+        <v>90.666666666699996</v>
+      </c>
+      <c r="C310" s="1">
+        <v>90.666666669999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>675</v>
+      </c>
+      <c r="B311" s="1">
+        <v>73.481481481499998</v>
+      </c>
+      <c r="C311" s="1">
+        <v>72.740740740000007</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>678</v>
+      </c>
+      <c r="B312" s="1">
+        <v>76.696165191700004</v>
+      </c>
+      <c r="C312" s="1">
+        <v>71.976401179999996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>679</v>
+      </c>
+      <c r="B313" s="1">
+        <v>79.675994109000001</v>
+      </c>
+      <c r="C313" s="1">
+        <v>69.513991160000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>681</v>
+      </c>
+      <c r="B314" s="1">
+        <v>77.826725403799998</v>
+      </c>
+      <c r="C314" s="1">
+        <v>70.484581500000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>682</v>
+      </c>
+      <c r="B315" s="1">
+        <v>89.589442815200002</v>
+      </c>
+      <c r="C315" s="1">
+        <v>89.442815249999995</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>684</v>
+      </c>
+      <c r="B316" s="1">
+        <v>80.116959064300005</v>
+      </c>
+      <c r="C316" s="1">
+        <v>76.023391810000007</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>684</v>
+      </c>
+      <c r="B317" s="1">
+        <v>89.181286549700005</v>
+      </c>
+      <c r="C317" s="1">
+        <v>88.888888890000004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>688</v>
+      </c>
+      <c r="B318" s="1">
+        <v>73.9825581395</v>
+      </c>
+      <c r="C318" s="1">
+        <v>54.215116279999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>689</v>
+      </c>
+      <c r="B319" s="1">
+        <v>79.245283018899997</v>
+      </c>
+      <c r="C319" s="1">
+        <v>68.50507983</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>693</v>
+      </c>
+      <c r="B320" s="1">
+        <v>88.744588744599994</v>
+      </c>
+      <c r="C320" s="1">
+        <v>88.744588739999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>694</v>
+      </c>
+      <c r="B321" s="1">
+        <v>79.394812680100003</v>
+      </c>
+      <c r="C321" s="1">
+        <v>76.512968299999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>706</v>
+      </c>
+      <c r="B322" s="1">
+        <v>81.444759206800001</v>
+      </c>
+      <c r="C322" s="1">
+        <v>70.396600570000004</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>712</v>
+      </c>
+      <c r="B323" s="1">
+        <v>77.387640449399996</v>
+      </c>
+      <c r="C323" s="1">
+        <v>73.595505619999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>738</v>
+      </c>
+      <c r="B324" s="1">
+        <v>75.338753387500006</v>
+      </c>
+      <c r="C324" s="1">
+        <v>73.035230350000006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>754</v>
+      </c>
+      <c r="B325" s="1">
+        <v>76.259946949600007</v>
+      </c>
+      <c r="C325" s="1">
+        <v>67.639257290000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>755</v>
+      </c>
+      <c r="B326" s="1">
+        <v>92.317880794700002</v>
+      </c>
+      <c r="C326" s="1">
+        <v>92.317880790000004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>764</v>
+      </c>
+      <c r="B327" s="1">
+        <v>77.094240837699999</v>
+      </c>
+      <c r="C327" s="1">
+        <v>76.570680629999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>764</v>
+      </c>
+      <c r="B328" s="1">
+        <v>89.136125654500006</v>
+      </c>
+      <c r="C328" s="1">
+        <v>89.659685859999996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>765</v>
+      </c>
+      <c r="B329" s="1">
+        <v>78.954248366000002</v>
+      </c>
+      <c r="C329" s="1">
+        <v>75.947712420000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>773</v>
+      </c>
+      <c r="B330" s="1">
+        <v>78.654592496800007</v>
+      </c>
+      <c r="C330" s="1">
+        <v>62.613195339999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>773</v>
+      </c>
+      <c r="B331" s="1">
+        <v>93.531694696000002</v>
+      </c>
+      <c r="C331" s="1">
+        <v>93.790426909999994</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>775</v>
+      </c>
+      <c r="B332" s="1">
+        <v>89.935483871000002</v>
+      </c>
+      <c r="C332" s="1">
+        <v>90.064516130000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>776</v>
+      </c>
+      <c r="B333" s="1">
+        <v>89.690721649500006</v>
+      </c>
+      <c r="C333" s="1">
+        <v>86.211340210000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>776</v>
+      </c>
+      <c r="B334" s="1">
+        <v>73.582474226800002</v>
+      </c>
+      <c r="C334" s="1">
+        <v>69.974226799999997</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>786</v>
+      </c>
+      <c r="B335" s="1">
+        <v>90.203562340999994</v>
+      </c>
+      <c r="C335" s="1">
+        <v>90.076335880000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>786</v>
+      </c>
+      <c r="B336" s="1">
+        <v>91.730279898199996</v>
+      </c>
+      <c r="C336" s="1">
+        <v>91.857506360000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>788</v>
+      </c>
+      <c r="B337" s="1">
+        <v>78.045685279200001</v>
+      </c>
+      <c r="C337" s="1">
+        <v>74.49238579</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>792</v>
+      </c>
+      <c r="B338" s="1">
+        <v>90.151515151500007</v>
+      </c>
+      <c r="C338" s="1">
+        <v>86.994949489999996</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>794</v>
+      </c>
+      <c r="B339" s="1">
+        <v>80.352644836300001</v>
+      </c>
+      <c r="C339" s="1">
+        <v>75.692695209999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>799</v>
+      </c>
+      <c r="B340" s="1">
+        <v>90.613266583200001</v>
+      </c>
+      <c r="C340" s="1">
+        <v>90.112640799999994</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>804</v>
+      </c>
+      <c r="B341" s="1">
+        <v>77.611940298500002</v>
+      </c>
+      <c r="C341" s="1">
+        <v>74.378109449999997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>807</v>
+      </c>
+      <c r="B342" s="1">
+        <v>78.1908302354</v>
+      </c>
+      <c r="C342" s="1">
+        <v>72.738537789999995</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>817</v>
+      </c>
+      <c r="B343" s="1">
+        <v>78.457772337799994</v>
+      </c>
+      <c r="C343" s="1">
+        <v>77.233782129999994</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>823</v>
+      </c>
+      <c r="B344" s="1">
+        <v>76.792223572300003</v>
+      </c>
+      <c r="C344" s="1">
+        <v>70.716889429999995</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>823</v>
+      </c>
+      <c r="B345" s="1">
+        <v>81.166464155499995</v>
+      </c>
+      <c r="C345" s="1">
+        <v>78.97934386</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>831</v>
+      </c>
+      <c r="B346" s="1">
+        <v>80.746089049299997</v>
+      </c>
+      <c r="C346" s="1">
+        <v>70.637785800000003</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>834</v>
+      </c>
+      <c r="B347" s="1">
+        <v>78.177458033600004</v>
+      </c>
+      <c r="C347" s="1">
+        <v>71.103117510000004</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>836</v>
+      </c>
+      <c r="B348" s="1">
+        <v>79.186602870800002</v>
+      </c>
+      <c r="C348" s="1">
+        <v>67.344497610000005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>838</v>
+      </c>
+      <c r="B349" s="1">
+        <v>77.684964200500005</v>
+      </c>
+      <c r="C349" s="1">
+        <v>76.014319810000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>841</v>
+      </c>
+      <c r="B350" s="1">
+        <v>79.191438763400001</v>
+      </c>
+      <c r="C350" s="1">
+        <v>72.532699170000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>842</v>
+      </c>
+      <c r="B351" s="1">
+        <v>78.503562945400006</v>
+      </c>
+      <c r="C351" s="1">
+        <v>76.365795719999994</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>842</v>
+      </c>
+      <c r="B352" s="1">
+        <v>77.078384798100004</v>
+      </c>
+      <c r="C352" s="1">
+        <v>73.040380049999996</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>844</v>
+      </c>
+      <c r="B353" s="1">
+        <v>81.398104265399994</v>
+      </c>
+      <c r="C353" s="1">
+        <v>77.48815166</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>845</v>
+      </c>
+      <c r="B354" s="1">
+        <v>87.455621301799994</v>
+      </c>
+      <c r="C354" s="1">
+        <v>86.272189350000005</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>845</v>
+      </c>
+      <c r="B355" s="1">
+        <v>81.183431952700005</v>
+      </c>
+      <c r="C355" s="1">
+        <v>59.171597630000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>846</v>
+      </c>
+      <c r="B356" s="1">
+        <v>79.550827423200005</v>
+      </c>
+      <c r="C356" s="1">
+        <v>77.30496454</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>847</v>
+      </c>
+      <c r="B357" s="1">
+        <v>89.020070838300001</v>
+      </c>
+      <c r="C357" s="1">
+        <v>89.020070840000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>848</v>
+      </c>
+      <c r="B358" s="1">
+        <v>79.599056603799994</v>
+      </c>
+      <c r="C358" s="1">
+        <v>72.995283020000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>848</v>
+      </c>
+      <c r="B359" s="1">
+        <v>82.311320754700006</v>
+      </c>
+      <c r="C359" s="1">
+        <v>71.226415090000003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>849</v>
+      </c>
+      <c r="B360" s="1">
+        <v>90.106007067099995</v>
+      </c>
+      <c r="C360" s="1">
+        <v>90.694935220000005</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>849</v>
+      </c>
+      <c r="B361" s="1">
+        <v>90.930506478200002</v>
+      </c>
+      <c r="C361" s="1">
+        <v>91.048292110000006</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>851</v>
+      </c>
+      <c r="B362" s="1">
+        <v>90.246768507599995</v>
+      </c>
+      <c r="C362" s="1">
+        <v>89.77673326</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>854</v>
+      </c>
+      <c r="B363" s="1">
+        <v>78.220140515200001</v>
+      </c>
+      <c r="C363" s="1">
+        <v>75.761124120000005</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>854</v>
+      </c>
+      <c r="B364" s="1">
+        <v>86.299765808000004</v>
+      </c>
+      <c r="C364" s="1">
+        <v>85.714285709999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>856</v>
+      </c>
+      <c r="B365" s="1">
+        <v>90.420560747699994</v>
+      </c>
+      <c r="C365" s="1">
+        <v>90.537383180000006</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>856</v>
+      </c>
+      <c r="B366" s="1">
+        <v>78.621495327100007</v>
+      </c>
+      <c r="C366" s="1">
+        <v>73.598130839999996</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>857</v>
+      </c>
+      <c r="B367" s="1">
+        <v>88.9148191365</v>
+      </c>
+      <c r="C367" s="1">
+        <v>88.914819140000006</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>858</v>
+      </c>
+      <c r="B368" s="1">
+        <v>87.296037295999994</v>
+      </c>
+      <c r="C368" s="1">
+        <v>87.52913753</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>860</v>
+      </c>
+      <c r="B369" s="1">
+        <v>79.7674418605</v>
+      </c>
+      <c r="C369" s="1">
+        <v>59.534883720000003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>861</v>
+      </c>
+      <c r="B370" s="1">
+        <v>80.2555168409</v>
+      </c>
+      <c r="C370" s="1">
+        <v>73.519163759999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>863</v>
+      </c>
+      <c r="B371" s="1">
+        <v>86.906141367299995</v>
+      </c>
+      <c r="C371" s="1">
+        <v>87.022016219999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>869</v>
+      </c>
+      <c r="B372" s="1">
+        <v>90.103567318800003</v>
+      </c>
+      <c r="C372" s="1">
+        <v>89.413118530000006</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>891</v>
+      </c>
+      <c r="B373" s="1">
+        <v>83.501683501700001</v>
+      </c>
+      <c r="C373" s="1">
+        <v>78.226711559999998</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>901</v>
+      </c>
+      <c r="B374" s="1">
+        <v>80.688124306299997</v>
+      </c>
+      <c r="C374" s="1">
+        <v>78.357380689999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>902</v>
+      </c>
+      <c r="B375" s="1">
+        <v>80.044345898000003</v>
+      </c>
+      <c r="C375" s="1">
+        <v>76.164079819999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>903</v>
+      </c>
+      <c r="B376" s="1">
+        <v>84.717607973400007</v>
+      </c>
+      <c r="C376" s="1">
+        <v>73.089701000000005</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>904</v>
+      </c>
+      <c r="B377" s="1">
+        <v>88.938053097299999</v>
+      </c>
+      <c r="C377" s="1">
+        <v>89.159292039999997</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>909</v>
+      </c>
+      <c r="B378" s="1">
+        <v>77.887788778900003</v>
+      </c>
+      <c r="C378" s="1">
+        <v>70.627062710000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>910</v>
+      </c>
+      <c r="B379" s="1">
+        <v>80.219780219800001</v>
+      </c>
+      <c r="C379" s="1">
+        <v>80.659340659999998</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>911</v>
+      </c>
+      <c r="B380" s="1">
+        <v>79.034028540099996</v>
+      </c>
+      <c r="C380" s="1">
+        <v>79.034028539999994</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>917</v>
+      </c>
+      <c r="B381" s="1">
+        <v>84.405670665200006</v>
+      </c>
+      <c r="C381" s="1">
+        <v>80.69792803</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>919</v>
+      </c>
+      <c r="B382" s="1">
+        <v>81.719260065300006</v>
+      </c>
+      <c r="C382" s="1">
+        <v>74.319912950000003</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>920</v>
+      </c>
+      <c r="B383" s="1">
+        <v>80.326086956500006</v>
+      </c>
+      <c r="C383" s="1">
+        <v>73.586956520000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>923</v>
+      </c>
+      <c r="B384" s="1">
+        <v>80.498374864599995</v>
+      </c>
+      <c r="C384" s="1">
+        <v>77.681473460000007</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>924</v>
+      </c>
+      <c r="B385" s="1">
+        <v>78.679653679699996</v>
+      </c>
+      <c r="C385" s="1">
+        <v>70.021645019999994</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>928</v>
+      </c>
+      <c r="B386" s="1">
+        <v>80.387931034499999</v>
+      </c>
+      <c r="C386" s="1">
+        <v>77.370689659999996</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>931</v>
+      </c>
+      <c r="B387" s="1">
+        <v>80.773361976399997</v>
+      </c>
+      <c r="C387" s="1">
+        <v>76.691729319999993</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>932</v>
+      </c>
+      <c r="B388" s="1">
+        <v>80.364806866999999</v>
+      </c>
+      <c r="C388" s="1">
+        <v>77.145922749999997</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>935</v>
+      </c>
+      <c r="B389" s="1">
+        <v>78.288770053500002</v>
+      </c>
+      <c r="C389" s="1">
+        <v>77.326203210000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>942</v>
+      </c>
+      <c r="B390" s="1">
+        <v>80.254777070100005</v>
+      </c>
+      <c r="C390" s="1">
+        <v>73.354564760000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>942</v>
+      </c>
+      <c r="B391" s="1">
+        <v>85.031847133799999</v>
+      </c>
+      <c r="C391" s="1">
+        <v>85.138004249999994</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>942</v>
+      </c>
+      <c r="B392" s="1">
+        <v>72.611464968199996</v>
+      </c>
+      <c r="C392" s="1">
+        <v>55.20169851</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>943</v>
+      </c>
+      <c r="B393" s="1">
+        <v>87.486744432699993</v>
+      </c>
+      <c r="C393" s="1">
+        <v>87.062566279999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>946</v>
+      </c>
+      <c r="B394" s="1">
+        <v>81.395348837200004</v>
+      </c>
+      <c r="C394" s="1">
+        <v>81.0782241</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>946</v>
+      </c>
+      <c r="B395" s="1">
+        <v>80.761099365800007</v>
+      </c>
+      <c r="C395" s="1">
+        <v>75.687103590000007</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>948</v>
+      </c>
+      <c r="B396" s="1">
+        <v>79.324894514799993</v>
+      </c>
+      <c r="C396" s="1">
+        <v>73.312236290000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>948</v>
+      </c>
+      <c r="B397" s="1">
+        <v>86.814345991600007</v>
+      </c>
+      <c r="C397" s="1">
+        <v>78.164556959999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>950</v>
+      </c>
+      <c r="B398" s="1">
+        <v>81.578947368399994</v>
+      </c>
+      <c r="C398" s="1">
+        <v>81.473684210000002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>951</v>
+      </c>
+      <c r="B399" s="1">
+        <v>78.864353312299997</v>
+      </c>
+      <c r="C399" s="1">
+        <v>73.396424819999993</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>954</v>
+      </c>
+      <c r="B400" s="1">
+        <v>87.211740041900001</v>
+      </c>
+      <c r="C400" s="1">
+        <v>87.211740039999995</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>957</v>
+      </c>
+      <c r="B401" s="1">
+        <v>79.310344827600005</v>
+      </c>
+      <c r="C401" s="1">
+        <v>71.786833860000002</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>961</v>
+      </c>
+      <c r="B402" s="1">
+        <v>85.431841831400007</v>
+      </c>
+      <c r="C402" s="1">
+        <v>83.766909470000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>962</v>
+      </c>
+      <c r="B403" s="1">
+        <v>80.0415800416</v>
+      </c>
+      <c r="C403" s="1">
+        <v>74.324324320000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>962</v>
+      </c>
+      <c r="B404" s="1">
+        <v>85.758835758800004</v>
+      </c>
+      <c r="C404" s="1">
+        <v>85.239085239999994</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>965</v>
+      </c>
+      <c r="B405" s="1">
+        <v>81.347150259100005</v>
+      </c>
+      <c r="C405" s="1">
+        <v>76.269430049999997</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>965</v>
+      </c>
+      <c r="B406" s="1">
+        <v>77.616580310900005</v>
+      </c>
+      <c r="C406" s="1">
+        <v>76.373056989999995</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>968</v>
+      </c>
+      <c r="B407" s="1">
+        <v>83.264462809899996</v>
+      </c>
+      <c r="C407" s="1">
+        <v>81.404958679999993</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>970</v>
+      </c>
+      <c r="B408" s="1">
+        <v>84.432989690699998</v>
+      </c>
+      <c r="C408" s="1">
+        <v>84.432989689999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>974</v>
+      </c>
+      <c r="B409" s="1">
+        <v>82.854209445600006</v>
+      </c>
+      <c r="C409" s="1">
+        <v>71.047227930000005</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>975</v>
+      </c>
+      <c r="B410" s="1">
+        <v>80.307692307699995</v>
+      </c>
+      <c r="C410" s="1">
+        <v>78.974358969999997</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>977</v>
+      </c>
+      <c r="B411" s="1">
+        <v>85.465711361299995</v>
+      </c>
+      <c r="C411" s="1">
+        <v>84.646878200000003</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>978</v>
+      </c>
+      <c r="B412" s="1">
+        <v>78.220858895700005</v>
+      </c>
+      <c r="C412" s="1">
+        <v>74.846625770000003</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>982</v>
+      </c>
+      <c r="B413" s="1">
+        <v>81.160896130300003</v>
+      </c>
+      <c r="C413" s="1">
+        <v>73.014256619999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>982</v>
+      </c>
+      <c r="B414" s="1">
+        <v>85.132382892099997</v>
+      </c>
+      <c r="C414" s="1">
+        <v>75.56008147</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>983</v>
+      </c>
+      <c r="B415" s="1">
+        <v>80.7731434385</v>
+      </c>
+      <c r="C415" s="1">
+        <v>72.634791449999994</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>984</v>
+      </c>
+      <c r="B416" s="1">
+        <v>86.686991869899998</v>
+      </c>
+      <c r="C416" s="1">
+        <v>86.68699187</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>986</v>
+      </c>
+      <c r="B417" s="1">
+        <v>76.166328600400007</v>
+      </c>
+      <c r="C417" s="1">
+        <v>67.849898580000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>986</v>
+      </c>
+      <c r="B418" s="1">
+        <v>88.235294117600006</v>
+      </c>
+      <c r="C418" s="1">
+        <v>88.133874239999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>986</v>
+      </c>
+      <c r="B419" s="1">
+        <v>83.0628803245</v>
+      </c>
+      <c r="C419" s="1">
+        <v>83.062880320000005</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>989</v>
+      </c>
+      <c r="B420" s="1">
+        <v>75.429726997000003</v>
+      </c>
+      <c r="C420" s="1">
+        <v>66.531850349999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>990</v>
+      </c>
+      <c r="B421" s="1">
+        <v>81.515151515200003</v>
+      </c>
+      <c r="C421" s="1">
+        <v>73.131313129999995</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>991</v>
+      </c>
+      <c r="B422" s="1">
+        <v>81.231079717499995</v>
+      </c>
+      <c r="C422" s="1">
+        <v>73.86478305</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>991</v>
+      </c>
+      <c r="B423" s="1">
+        <v>82.341069626600003</v>
+      </c>
+      <c r="C423" s="1">
+        <v>81.533804239999995</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>991</v>
+      </c>
+      <c r="B424" s="1">
+        <v>87.5882946519</v>
+      </c>
+      <c r="C424" s="1">
+        <v>83.451059540000003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>993</v>
+      </c>
+      <c r="B425" s="1">
+        <v>79.556898287999999</v>
+      </c>
+      <c r="C425" s="1">
+        <v>75.226586100000006</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>994</v>
+      </c>
+      <c r="B426" s="1">
+        <v>85.2112676056</v>
+      </c>
+      <c r="C426" s="1">
+        <v>85.311871229999994</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>994</v>
+      </c>
+      <c r="B427" s="1">
+        <v>81.891348088499996</v>
+      </c>
+      <c r="C427" s="1">
+        <v>81.891348089999994</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>996</v>
+      </c>
+      <c r="B428" s="1">
+        <v>81.526104417699997</v>
+      </c>
+      <c r="C428" s="1">
+        <v>81.526104419999996</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>996</v>
+      </c>
+      <c r="B429" s="1">
+        <v>83.232931726900006</v>
+      </c>
+      <c r="C429" s="1">
+        <v>79.417670680000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B430" s="1">
+        <v>84.215784215799999</v>
+      </c>
+      <c r="C430" s="1">
+        <v>81.018981019999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B431" s="1">
+        <v>79.7607178465</v>
+      </c>
+      <c r="C431" s="1">
+        <v>72.681954140000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C431">
+    <sortCondition ref="A2:A431"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Poster/graphics work.xlsx
+++ b/Poster/graphics work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="8445" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="9555" windowHeight="8385" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Chart4" sheetId="7" r:id="rId1"/>
@@ -670,7 +670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -807,11 +806,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136138752"/>
-        <c:axId val="134548288"/>
+        <c:axId val="74688000"/>
+        <c:axId val="104333888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136138752"/>
+        <c:axId val="74688000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,14 +832,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134548288"/>
+        <c:crossAx val="104333888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,7 +846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134548288"/>
+        <c:axId val="104333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,21 +869,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136138752"/>
+        <c:crossAx val="74688000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6234,11 +6230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134550016"/>
-        <c:axId val="134550592"/>
+        <c:axId val="104335616"/>
+        <c:axId val="104336192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134550016"/>
+        <c:axId val="104335616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -6267,12 +6263,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134550592"/>
+        <c:crossAx val="104336192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134550592"/>
+        <c:axId val="104336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6303,7 +6299,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134550016"/>
+        <c:crossAx val="104335616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6863,11 +6859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136140288"/>
-        <c:axId val="175358528"/>
+        <c:axId val="74689536"/>
+        <c:axId val="104339648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136140288"/>
+        <c:axId val="74689536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6895,7 +6891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175358528"/>
+        <c:crossAx val="104339648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6903,7 +6899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175358528"/>
+        <c:axId val="104339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6932,7 +6928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136140288"/>
+        <c:crossAx val="74689536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7024,7 +7020,16 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17956900147258292"/>
+                  <c:y val="-2.9979641854262881E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -9648,7 +9653,16 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18249710590308157"/>
+                  <c:y val="-0.10468904727945766"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -12258,11 +12272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172398208"/>
-        <c:axId val="35373632"/>
+        <c:axId val="105456192"/>
+        <c:axId val="105456768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172398208"/>
+        <c:axId val="105456192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12272,14 +12286,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35373632"/>
+        <c:crossAx val="105456768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35373632"/>
+        <c:axId val="105456768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12288,7 +12304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172398208"/>
+        <c:crossAx val="105456192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12353,7 +12369,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12472,7 +12488,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667023" cy="6289408"/>
+    <xdr:ext cx="8674554" cy="6293304"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/Poster/graphics work.xlsx
+++ b/Poster/graphics work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="9555" windowHeight="8385" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="9555" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart4" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Sheet7" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -861,11 +860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43630592"/>
-        <c:axId val="77561856"/>
+        <c:axId val="65011200"/>
+        <c:axId val="79813376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43630592"/>
+        <c:axId val="65011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77561856"/>
+        <c:crossAx val="79813376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77561856"/>
+        <c:axId val="79813376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43630592"/>
+        <c:crossAx val="65011200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6270,11 +6269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77563584"/>
-        <c:axId val="77564160"/>
+        <c:axId val="67527232"/>
+        <c:axId val="67527808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77563584"/>
+        <c:axId val="67527232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -6288,10 +6287,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Representative Number</a:t>
                 </a:r>
               </a:p>
@@ -6304,12 +6303,22 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77564160"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67527808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77564160"/>
+        <c:axId val="67527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6325,10 +6334,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Percent Accuracy</a:t>
                 </a:r>
               </a:p>
@@ -6341,7 +6350,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77563584"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67527232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6350,6 +6369,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6555,7 +6584,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6904,11 +6932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40441856"/>
-        <c:axId val="45695552"/>
+        <c:axId val="64985600"/>
+        <c:axId val="67531264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40441856"/>
+        <c:axId val="64985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,14 +6958,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45695552"/>
+        <c:crossAx val="67531264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6945,7 +6972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45695552"/>
+        <c:axId val="67531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6968,21 +6995,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40441856"/>
+        <c:crossAx val="64985600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12320,11 +12345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45697856"/>
-        <c:axId val="45698432"/>
+        <c:axId val="67533568"/>
+        <c:axId val="67534144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45697856"/>
+        <c:axId val="67533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12334,12 +12359,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45698432"/>
+        <c:crossAx val="67534144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45698432"/>
+        <c:axId val="67534144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12352,14 +12377,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45697856"/>
+        <c:crossAx val="67533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12399,7 +12423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12535,11 +12558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167864320"/>
-        <c:axId val="47383680"/>
+        <c:axId val="67972608"/>
+        <c:axId val="127076032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167864320"/>
+        <c:axId val="67972608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12561,7 +12584,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -12577,7 +12599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47383680"/>
+        <c:crossAx val="127076032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12585,7 +12607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47383680"/>
+        <c:axId val="127076032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12608,7 +12630,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12625,7 +12646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167864320"/>
+        <c:crossAx val="67972608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17988,11 +18009,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105855744"/>
-        <c:axId val="163074560"/>
+        <c:axId val="127077760"/>
+        <c:axId val="127078336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105855744"/>
+        <c:axId val="127077760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -18015,7 +18036,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18032,12 +18052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163074560"/>
+        <c:crossAx val="127078336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163074560"/>
+        <c:axId val="127078336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -18067,7 +18087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18084,14 +18103,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105855744"/>
+        <c:crossAx val="127077760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -18155,7 +18173,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18210,7 +18228,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
